--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.43846183950359</v>
+        <v>21.43846183950365</v>
       </c>
       <c r="C2">
-        <v>15.10087671332546</v>
+        <v>15.10087671332526</v>
       </c>
       <c r="D2">
-        <v>8.09490594116839</v>
+        <v>8.094905941168424</v>
       </c>
       <c r="E2">
-        <v>9.946908986254483</v>
+        <v>9.946908986254462</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.85117808894728</v>
+        <v>63.85117808894718</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.457619422362288</v>
+        <v>5.45761942236229</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75573000027046</v>
+        <v>19.75573000027048</v>
       </c>
       <c r="C3">
-        <v>13.88398295807734</v>
+        <v>13.88398295807725</v>
       </c>
       <c r="D3">
-        <v>7.612310675767567</v>
+        <v>7.612310675767572</v>
       </c>
       <c r="E3">
-        <v>9.46419600650286</v>
+        <v>9.464196006502901</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77280987567652</v>
+        <v>59.77280987567599</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.378521995005877</v>
+        <v>5.378521995005842</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.91413341893259</v>
+        <v>15.91413341893255</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68755119546595</v>
+        <v>18.68755119546594</v>
       </c>
       <c r="C4">
-        <v>13.11413893474172</v>
+        <v>13.11413893474164</v>
       </c>
       <c r="D4">
-        <v>7.312379373333674</v>
+        <v>7.312379373333648</v>
       </c>
       <c r="E4">
-        <v>9.167185099285563</v>
+        <v>9.167185099285511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.20648634892267</v>
+        <v>57.20648634892249</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.332245520858446</v>
+        <v>5.332245520858403</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24291999755382</v>
+        <v>18.24291999755388</v>
       </c>
       <c r="C5">
-        <v>12.79420849233535</v>
+        <v>12.79420849233522</v>
       </c>
       <c r="D5">
-        <v>7.189239045064346</v>
+        <v>7.189239045064334</v>
       </c>
       <c r="E5">
-        <v>9.045981737755049</v>
+        <v>9.045981737755056</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.1444814617066</v>
+        <v>56.14448146170628</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.313917193918596</v>
+        <v>5.313917193918607</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.73073426784965</v>
+        <v>14.73073426784962</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.168511057815</v>
+        <v>18.16851105781495</v>
       </c>
       <c r="C6">
-        <v>12.74069538332398</v>
+        <v>12.74069538332379</v>
       </c>
       <c r="D6">
-        <v>7.16873705079593</v>
+        <v>7.168737050795978</v>
       </c>
       <c r="E6">
-        <v>9.025846179058634</v>
+        <v>9.025846179058611</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96714687631727</v>
+        <v>55.96714687631743</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.310904545846901</v>
+        <v>5.310904545846755</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68159321284043</v>
+        <v>18.68159321284053</v>
       </c>
       <c r="C7">
-        <v>13.10985002308349</v>
+        <v>13.10985002308348</v>
       </c>
       <c r="D7">
-        <v>7.310722343752056</v>
+        <v>7.310722343752124</v>
       </c>
       <c r="E7">
-        <v>9.165551180830015</v>
+        <v>9.165551180830089</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.1922299256716</v>
+        <v>57.19222992567163</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.331996250448602</v>
+        <v>5.331996250448626</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.07435122604619</v>
+        <v>15.07435122604623</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86515614196001</v>
+        <v>20.86515614196014</v>
       </c>
       <c r="C8">
-        <v>14.6856634001132</v>
+        <v>14.68566340011324</v>
       </c>
       <c r="D8">
-        <v>7.929238772444777</v>
+        <v>7.929238772444814</v>
       </c>
       <c r="E8">
         <v>9.780578630349698</v>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.4574198192826</v>
+        <v>62.45741981928226</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.429841682825809</v>
+        <v>5.429841682825771</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.77930301824309</v>
+        <v>16.77930301824316</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.90008612988735</v>
+        <v>24.90008612988714</v>
       </c>
       <c r="C9">
-        <v>17.62382849148739</v>
+        <v>17.62382849148731</v>
       </c>
       <c r="D9">
-        <v>9.116512355746837</v>
+        <v>9.116512355746838</v>
       </c>
       <c r="E9">
-        <v>10.98475257837992</v>
+        <v>10.98475257837987</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.33348267051534</v>
+        <v>72.33348267051434</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.642370035410503</v>
+        <v>5.642370035410369</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.90950762705411</v>
+        <v>19.90950762705403</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76817603732624</v>
+        <v>27.76817603732635</v>
       </c>
       <c r="C10">
-        <v>19.73852744166616</v>
+        <v>19.73852744166624</v>
       </c>
       <c r="D10">
-        <v>9.982169791204798</v>
+        <v>9.982169791204784</v>
       </c>
       <c r="E10">
         <v>11.87716588319087</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.41081465770135</v>
+        <v>79.41081465770164</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.815460892913261</v>
+        <v>5.815460892913269</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.12062111747954</v>
+        <v>22.12062111747962</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.06876190092247</v>
+        <v>29.06876190092233</v>
       </c>
       <c r="C11">
-        <v>20.70590345375069</v>
+        <v>20.70590345375076</v>
       </c>
       <c r="D11">
-        <v>10.42362759041277</v>
+        <v>10.42362759041282</v>
       </c>
       <c r="E11">
-        <v>12.28847086042965</v>
+        <v>12.28847086042966</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.62483989268652</v>
+        <v>82.62483989268596</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.899222092041954</v>
+        <v>5.899222092041945</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.11972233409863</v>
+        <v>23.11972233409855</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.56257644796771</v>
+        <v>29.56257644796758</v>
       </c>
       <c r="C12">
-        <v>21.07469493332486</v>
+        <v>21.07469493332489</v>
       </c>
       <c r="D12">
-        <v>10.59165516414016</v>
+        <v>10.59165516414011</v>
       </c>
       <c r="E12">
-        <v>12.44545758497849</v>
+        <v>12.4454575849785</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.84508420372282</v>
+        <v>83.84508420372237</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.931815276129537</v>
+        <v>5.931815276129574</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.49849084633732</v>
+        <v>23.49849084633722</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.45612990232802</v>
+        <v>29.45612990232799</v>
       </c>
       <c r="C13">
-        <v>20.99512695025748</v>
+        <v>20.99512695025752</v>
       </c>
       <c r="D13">
-        <v>10.55546254008583</v>
+        <v>10.55546254008592</v>
       </c>
       <c r="E13">
-        <v>12.41158348976581</v>
+        <v>12.41158348976583</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.58206526455869</v>
+        <v>83.58206526455986</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.924753922627408</v>
+        <v>5.924753922627437</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.41687041403782</v>
+        <v>23.41687041403787</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.1093491312761</v>
+        <v>29.10934913127612</v>
       </c>
       <c r="C14">
-        <v>20.73618321811491</v>
+        <v>20.73618321811493</v>
       </c>
       <c r="D14">
-        <v>10.43745012796615</v>
+        <v>10.43745012796618</v>
       </c>
       <c r="E14">
-        <v>12.30135822747439</v>
+        <v>12.30135822747446</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.72513953601465</v>
+        <v>82.72513953601474</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.901884986168945</v>
+        <v>5.901884986169005</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.15086575016993</v>
+        <v>23.15086575017001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.897172606532</v>
+        <v>28.89717260653211</v>
       </c>
       <c r="C15">
-        <v>20.57795268491865</v>
+        <v>20.57795268491903</v>
       </c>
       <c r="D15">
-        <v>10.36516670912396</v>
+        <v>10.36516670912401</v>
       </c>
       <c r="E15">
-        <v>12.23401957356684</v>
+        <v>12.23401957356688</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.20079851768372</v>
+        <v>82.20079851768521</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.887996306280948</v>
+        <v>5.88799630628092</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.98803466967866</v>
+        <v>22.98803466967876</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68324742440524</v>
+        <v>27.68324742440515</v>
       </c>
       <c r="C16">
-        <v>19.67554951742428</v>
+        <v>19.67554951742401</v>
       </c>
       <c r="D16">
-        <v>9.956369241848204</v>
+        <v>9.956369241848144</v>
       </c>
       <c r="E16">
-        <v>11.85042978979114</v>
+        <v>11.85042978979115</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.20097047249374</v>
+        <v>79.20097047249342</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.810100006096765</v>
+        <v>5.810100006096685</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.05530284132216</v>
+        <v>22.05530284132213</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.9386819471528</v>
+        <v>26.93868194715301</v>
       </c>
       <c r="C17">
-        <v>19.12439606304907</v>
+        <v>19.12439606304912</v>
       </c>
       <c r="D17">
-        <v>9.730552069487503</v>
+        <v>9.730552069487459</v>
       </c>
       <c r="E17">
-        <v>11.61676040756759</v>
+        <v>11.61676040756762</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.36171282401985</v>
+        <v>77.3617128240206</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.76369475359491</v>
+        <v>5.76369475359493</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.48225585889483</v>
+        <v>21.48225585889503</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50989953707731</v>
+        <v>26.50989953707752</v>
       </c>
       <c r="C18">
-        <v>18.80777001661419</v>
+        <v>18.80777001661438</v>
       </c>
       <c r="D18">
-        <v>9.600843158026159</v>
+        <v>9.60084315802621</v>
       </c>
       <c r="E18">
-        <v>11.48282662069871</v>
+        <v>11.48282662069875</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.30300686516027</v>
+        <v>76.30300686516109</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.737465064112193</v>
+        <v>5.737465064112225</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.15191700505824</v>
+        <v>21.15191700505837</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36458084555874</v>
+        <v>26.36458084555881</v>
       </c>
       <c r="C19">
-        <v>18.70058750925701</v>
+        <v>18.70058750925693</v>
       </c>
       <c r="D19">
-        <v>9.556944432467951</v>
+        <v>9.556944432467965</v>
       </c>
       <c r="E19">
-        <v>11.43754745674784</v>
+        <v>11.43754745674786</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.94430616210583</v>
+        <v>75.94430616210651</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.728659416095132</v>
+        <v>5.728659416095099</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01798475832965</v>
+        <v>27.01798475832987</v>
       </c>
       <c r="C20">
-        <v>19.18301690818068</v>
+        <v>19.18301690818077</v>
       </c>
       <c r="D20">
-        <v>9.754569716033087</v>
+        <v>9.754569716033206</v>
       </c>
       <c r="E20">
-        <v>11.64158375344308</v>
+        <v>11.64158375344319</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.55756435718824</v>
+        <v>77.55756435718936</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.76858595226286</v>
+        <v>5.768585952262931</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.54332506994404</v>
+        <v>21.5433250699442</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.21115349330642</v>
+        <v>29.21115349330634</v>
       </c>
       <c r="C21">
-        <v>20.81215832261285</v>
+        <v>20.81215832261264</v>
       </c>
       <c r="D21">
-        <v>10.47211147971431</v>
+        <v>10.47211147971413</v>
       </c>
       <c r="E21">
-        <v>12.33369598349769</v>
+        <v>12.33369598349767</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.97671569268722</v>
+        <v>82.97671569268651</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.908576965371197</v>
+        <v>5.908576965371132</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.22897290406679</v>
+        <v>23.22897290406674</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.65349364212497</v>
+        <v>30.65349364212507</v>
       </c>
       <c r="C22">
-        <v>21.89246683590224</v>
+        <v>21.8924668359024</v>
       </c>
       <c r="D22">
-        <v>10.96168775479329</v>
+        <v>10.96168775479331</v>
       </c>
       <c r="E22">
         <v>12.79357991431108</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.53973509271827</v>
+        <v>86.5397350927186</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.005274937924157</v>
+        <v>6.005274937924186</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.33412670189376</v>
+        <v>24.33412670189383</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.88208017974061</v>
+        <v>29.88208017974059</v>
       </c>
       <c r="C23">
-        <v>21.31376024513976</v>
+        <v>21.31376024513987</v>
       </c>
       <c r="D23">
-        <v>10.7001974303806</v>
+        <v>10.70019743038053</v>
       </c>
       <c r="E23">
-        <v>12.54723829111805</v>
+        <v>12.54723829111799</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63447151128366</v>
+        <v>84.63447151128342</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.953125734098945</v>
+        <v>5.95312573409892</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.74338940152233</v>
+        <v>23.74338940152228</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98213434132135</v>
+        <v>26.98213434132133</v>
       </c>
       <c r="C24">
-        <v>19.15651379894053</v>
+        <v>19.15651379894072</v>
       </c>
       <c r="D24">
-        <v>9.743711008038156</v>
+        <v>9.743711008038202</v>
       </c>
       <c r="E24">
-        <v>11.63035988739449</v>
+        <v>11.63035988739447</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.46902418429022</v>
+        <v>77.46902418428995</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.766373252711925</v>
+        <v>5.766373252711952</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.5157185408635</v>
+        <v>21.51571854086352</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8301138880454</v>
+        <v>23.83011388804536</v>
       </c>
       <c r="C25">
-        <v>16.84085391772309</v>
+        <v>16.84085391772321</v>
       </c>
       <c r="D25">
-        <v>8.797403718033609</v>
+        <v>8.797403718033546</v>
       </c>
       <c r="E25">
-        <v>10.65854159206019</v>
+        <v>10.65854159206012</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.70190750222642</v>
+        <v>69.70190750222626</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.582271459479584</v>
+        <v>5.582271459479622</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.08177229638462</v>
+        <v>19.08177229638461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.43846183950365</v>
+        <v>21.43846183950359</v>
       </c>
       <c r="C2">
-        <v>15.10087671332526</v>
+        <v>15.10087671332546</v>
       </c>
       <c r="D2">
-        <v>8.094905941168424</v>
+        <v>8.09490594116839</v>
       </c>
       <c r="E2">
-        <v>9.946908986254462</v>
+        <v>9.946908986254483</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.85117808894718</v>
+        <v>63.85117808894728</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.45761942236229</v>
+        <v>5.457619422362288</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75573000027048</v>
+        <v>19.75573000027046</v>
       </c>
       <c r="C3">
-        <v>13.88398295807725</v>
+        <v>13.88398295807734</v>
       </c>
       <c r="D3">
-        <v>7.612310675767572</v>
+        <v>7.612310675767567</v>
       </c>
       <c r="E3">
-        <v>9.464196006502901</v>
+        <v>9.46419600650286</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77280987567599</v>
+        <v>59.77280987567652</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.378521995005842</v>
+        <v>5.378521995005877</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.91413341893255</v>
+        <v>15.91413341893259</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68755119546594</v>
+        <v>18.68755119546595</v>
       </c>
       <c r="C4">
-        <v>13.11413893474164</v>
+        <v>13.11413893474172</v>
       </c>
       <c r="D4">
-        <v>7.312379373333648</v>
+        <v>7.312379373333674</v>
       </c>
       <c r="E4">
-        <v>9.167185099285511</v>
+        <v>9.167185099285563</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.20648634892249</v>
+        <v>57.20648634892267</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.332245520858403</v>
+        <v>5.332245520858446</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24291999755388</v>
+        <v>18.24291999755382</v>
       </c>
       <c r="C5">
-        <v>12.79420849233522</v>
+        <v>12.79420849233535</v>
       </c>
       <c r="D5">
-        <v>7.189239045064334</v>
+        <v>7.189239045064346</v>
       </c>
       <c r="E5">
-        <v>9.045981737755056</v>
+        <v>9.045981737755049</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.14448146170628</v>
+        <v>56.1444814617066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.313917193918607</v>
+        <v>5.313917193918596</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.73073426784962</v>
+        <v>14.73073426784965</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16851105781495</v>
+        <v>18.168511057815</v>
       </c>
       <c r="C6">
-        <v>12.74069538332379</v>
+        <v>12.74069538332398</v>
       </c>
       <c r="D6">
-        <v>7.168737050795978</v>
+        <v>7.16873705079593</v>
       </c>
       <c r="E6">
-        <v>9.025846179058611</v>
+        <v>9.025846179058634</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96714687631743</v>
+        <v>55.96714687631727</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.310904545846755</v>
+        <v>5.310904545846901</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68159321284053</v>
+        <v>18.68159321284043</v>
       </c>
       <c r="C7">
-        <v>13.10985002308348</v>
+        <v>13.10985002308349</v>
       </c>
       <c r="D7">
-        <v>7.310722343752124</v>
+        <v>7.310722343752056</v>
       </c>
       <c r="E7">
-        <v>9.165551180830089</v>
+        <v>9.165551180830015</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.19222992567163</v>
+        <v>57.1922299256716</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.331996250448626</v>
+        <v>5.331996250448602</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.07435122604623</v>
+        <v>15.07435122604619</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86515614196014</v>
+        <v>20.86515614196001</v>
       </c>
       <c r="C8">
-        <v>14.68566340011324</v>
+        <v>14.6856634001132</v>
       </c>
       <c r="D8">
-        <v>7.929238772444814</v>
+        <v>7.929238772444777</v>
       </c>
       <c r="E8">
         <v>9.780578630349698</v>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.45741981928226</v>
+        <v>62.4574198192826</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.429841682825771</v>
+        <v>5.429841682825809</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.77930301824316</v>
+        <v>16.77930301824309</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.90008612988714</v>
+        <v>24.90008612988735</v>
       </c>
       <c r="C9">
-        <v>17.62382849148731</v>
+        <v>17.62382849148739</v>
       </c>
       <c r="D9">
-        <v>9.116512355746838</v>
+        <v>9.116512355746837</v>
       </c>
       <c r="E9">
-        <v>10.98475257837987</v>
+        <v>10.98475257837992</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.33348267051434</v>
+        <v>72.33348267051534</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.642370035410369</v>
+        <v>5.642370035410503</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.90950762705403</v>
+        <v>19.90950762705411</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76817603732635</v>
+        <v>27.76817603732624</v>
       </c>
       <c r="C10">
-        <v>19.73852744166624</v>
+        <v>19.73852744166616</v>
       </c>
       <c r="D10">
-        <v>9.982169791204784</v>
+        <v>9.982169791204798</v>
       </c>
       <c r="E10">
         <v>11.87716588319087</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.41081465770164</v>
+        <v>79.41081465770135</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.815460892913269</v>
+        <v>5.815460892913261</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.12062111747962</v>
+        <v>22.12062111747954</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.06876190092233</v>
+        <v>29.06876190092247</v>
       </c>
       <c r="C11">
-        <v>20.70590345375076</v>
+        <v>20.70590345375069</v>
       </c>
       <c r="D11">
-        <v>10.42362759041282</v>
+        <v>10.42362759041277</v>
       </c>
       <c r="E11">
-        <v>12.28847086042966</v>
+        <v>12.28847086042965</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.62483989268596</v>
+        <v>82.62483989268652</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.899222092041945</v>
+        <v>5.899222092041954</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.11972233409855</v>
+        <v>23.11972233409863</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.56257644796758</v>
+        <v>29.56257644796771</v>
       </c>
       <c r="C12">
-        <v>21.07469493332489</v>
+        <v>21.07469493332486</v>
       </c>
       <c r="D12">
-        <v>10.59165516414011</v>
+        <v>10.59165516414016</v>
       </c>
       <c r="E12">
-        <v>12.4454575849785</v>
+        <v>12.44545758497849</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.84508420372237</v>
+        <v>83.84508420372282</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.931815276129574</v>
+        <v>5.931815276129537</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.49849084633722</v>
+        <v>23.49849084633732</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.45612990232799</v>
+        <v>29.45612990232802</v>
       </c>
       <c r="C13">
-        <v>20.99512695025752</v>
+        <v>20.99512695025748</v>
       </c>
       <c r="D13">
-        <v>10.55546254008592</v>
+        <v>10.55546254008583</v>
       </c>
       <c r="E13">
-        <v>12.41158348976583</v>
+        <v>12.41158348976581</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.58206526455986</v>
+        <v>83.58206526455869</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.924753922627437</v>
+        <v>5.924753922627408</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.41687041403787</v>
+        <v>23.41687041403782</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.10934913127612</v>
+        <v>29.1093491312761</v>
       </c>
       <c r="C14">
-        <v>20.73618321811493</v>
+        <v>20.73618321811491</v>
       </c>
       <c r="D14">
-        <v>10.43745012796618</v>
+        <v>10.43745012796615</v>
       </c>
       <c r="E14">
-        <v>12.30135822747446</v>
+        <v>12.30135822747439</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.72513953601474</v>
+        <v>82.72513953601465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.901884986169005</v>
+        <v>5.901884986168945</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.15086575017001</v>
+        <v>23.15086575016993</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.89717260653211</v>
+        <v>28.897172606532</v>
       </c>
       <c r="C15">
-        <v>20.57795268491903</v>
+        <v>20.57795268491865</v>
       </c>
       <c r="D15">
-        <v>10.36516670912401</v>
+        <v>10.36516670912396</v>
       </c>
       <c r="E15">
-        <v>12.23401957356688</v>
+        <v>12.23401957356684</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.20079851768521</v>
+        <v>82.20079851768372</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.88799630628092</v>
+        <v>5.887996306280948</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.98803466967876</v>
+        <v>22.98803466967866</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68324742440515</v>
+        <v>27.68324742440524</v>
       </c>
       <c r="C16">
-        <v>19.67554951742401</v>
+        <v>19.67554951742428</v>
       </c>
       <c r="D16">
-        <v>9.956369241848144</v>
+        <v>9.956369241848204</v>
       </c>
       <c r="E16">
-        <v>11.85042978979115</v>
+        <v>11.85042978979114</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.20097047249342</v>
+        <v>79.20097047249374</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.810100006096685</v>
+        <v>5.810100006096765</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.05530284132213</v>
+        <v>22.05530284132216</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93868194715301</v>
+        <v>26.9386819471528</v>
       </c>
       <c r="C17">
-        <v>19.12439606304912</v>
+        <v>19.12439606304907</v>
       </c>
       <c r="D17">
-        <v>9.730552069487459</v>
+        <v>9.730552069487503</v>
       </c>
       <c r="E17">
-        <v>11.61676040756762</v>
+        <v>11.61676040756759</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.3617128240206</v>
+        <v>77.36171282401985</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.76369475359493</v>
+        <v>5.76369475359491</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.48225585889503</v>
+        <v>21.48225585889483</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50989953707752</v>
+        <v>26.50989953707731</v>
       </c>
       <c r="C18">
-        <v>18.80777001661438</v>
+        <v>18.80777001661419</v>
       </c>
       <c r="D18">
-        <v>9.60084315802621</v>
+        <v>9.600843158026159</v>
       </c>
       <c r="E18">
-        <v>11.48282662069875</v>
+        <v>11.48282662069871</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.30300686516109</v>
+        <v>76.30300686516027</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.737465064112225</v>
+        <v>5.737465064112193</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.15191700505837</v>
+        <v>21.15191700505824</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36458084555881</v>
+        <v>26.36458084555874</v>
       </c>
       <c r="C19">
-        <v>18.70058750925693</v>
+        <v>18.70058750925701</v>
       </c>
       <c r="D19">
-        <v>9.556944432467965</v>
+        <v>9.556944432467951</v>
       </c>
       <c r="E19">
-        <v>11.43754745674786</v>
+        <v>11.43754745674784</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.94430616210651</v>
+        <v>75.94430616210583</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.728659416095099</v>
+        <v>5.728659416095132</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01798475832987</v>
+        <v>27.01798475832965</v>
       </c>
       <c r="C20">
-        <v>19.18301690818077</v>
+        <v>19.18301690818068</v>
       </c>
       <c r="D20">
-        <v>9.754569716033206</v>
+        <v>9.754569716033087</v>
       </c>
       <c r="E20">
-        <v>11.64158375344319</v>
+        <v>11.64158375344308</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.55756435718936</v>
+        <v>77.55756435718824</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.768585952262931</v>
+        <v>5.76858595226286</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.5433250699442</v>
+        <v>21.54332506994404</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.21115349330634</v>
+        <v>29.21115349330642</v>
       </c>
       <c r="C21">
-        <v>20.81215832261264</v>
+        <v>20.81215832261285</v>
       </c>
       <c r="D21">
-        <v>10.47211147971413</v>
+        <v>10.47211147971431</v>
       </c>
       <c r="E21">
-        <v>12.33369598349767</v>
+        <v>12.33369598349769</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.97671569268651</v>
+        <v>82.97671569268722</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.908576965371132</v>
+        <v>5.908576965371197</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.22897290406674</v>
+        <v>23.22897290406679</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.65349364212507</v>
+        <v>30.65349364212497</v>
       </c>
       <c r="C22">
-        <v>21.8924668359024</v>
+        <v>21.89246683590224</v>
       </c>
       <c r="D22">
-        <v>10.96168775479331</v>
+        <v>10.96168775479329</v>
       </c>
       <c r="E22">
         <v>12.79357991431108</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.5397350927186</v>
+        <v>86.53973509271827</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.005274937924186</v>
+        <v>6.005274937924157</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.33412670189383</v>
+        <v>24.33412670189376</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.88208017974059</v>
+        <v>29.88208017974061</v>
       </c>
       <c r="C23">
-        <v>21.31376024513987</v>
+        <v>21.31376024513976</v>
       </c>
       <c r="D23">
-        <v>10.70019743038053</v>
+        <v>10.7001974303806</v>
       </c>
       <c r="E23">
-        <v>12.54723829111799</v>
+        <v>12.54723829111805</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63447151128342</v>
+        <v>84.63447151128366</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.95312573409892</v>
+        <v>5.953125734098945</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.74338940152228</v>
+        <v>23.74338940152233</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98213434132133</v>
+        <v>26.98213434132135</v>
       </c>
       <c r="C24">
-        <v>19.15651379894072</v>
+        <v>19.15651379894053</v>
       </c>
       <c r="D24">
-        <v>9.743711008038202</v>
+        <v>9.743711008038156</v>
       </c>
       <c r="E24">
-        <v>11.63035988739447</v>
+        <v>11.63035988739449</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.46902418428995</v>
+        <v>77.46902418429022</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.766373252711952</v>
+        <v>5.766373252711925</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.51571854086352</v>
+        <v>21.5157185408635</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.83011388804536</v>
+        <v>23.8301138880454</v>
       </c>
       <c r="C25">
-        <v>16.84085391772321</v>
+        <v>16.84085391772309</v>
       </c>
       <c r="D25">
-        <v>8.797403718033546</v>
+        <v>8.797403718033609</v>
       </c>
       <c r="E25">
-        <v>10.65854159206012</v>
+        <v>10.65854159206019</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.70190750222626</v>
+        <v>69.70190750222642</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.582271459479622</v>
+        <v>5.582271459479584</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.08177229638461</v>
+        <v>19.08177229638462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.43846183950359</v>
+        <v>21.43438606999254</v>
       </c>
       <c r="C2">
-        <v>15.10087671332546</v>
+        <v>15.09586698674423</v>
       </c>
       <c r="D2">
-        <v>8.09490594116839</v>
+        <v>8.094381848445561</v>
       </c>
       <c r="E2">
-        <v>9.946908986254483</v>
+        <v>9.945399783230256</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.85117808894728</v>
+        <v>63.19363264985402</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.83777695734422</v>
       </c>
       <c r="I2">
-        <v>5.457619422362288</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.456329222702898</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.22557227351048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.22275490447016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75573000027046</v>
+        <v>19.75279026008449</v>
       </c>
       <c r="C3">
-        <v>13.88398295807734</v>
+        <v>13.88023322455854</v>
       </c>
       <c r="D3">
-        <v>7.612310675767567</v>
+        <v>7.611936980650561</v>
       </c>
       <c r="E3">
-        <v>9.46419600650286</v>
+        <v>9.46296896144977</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.77280987567652</v>
+        <v>58.94613394188502</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.76275770686209</v>
       </c>
       <c r="I3">
-        <v>5.378521995005877</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.377480236426108</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.91413341893259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.91202646328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68755119546595</v>
+        <v>18.68523828240189</v>
       </c>
       <c r="C4">
-        <v>13.11413893474172</v>
+        <v>13.11110379351419</v>
       </c>
       <c r="D4">
-        <v>7.312379373333674</v>
+        <v>7.312085975177832</v>
       </c>
       <c r="E4">
-        <v>9.167185099285563</v>
+        <v>9.166132902460355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.20648634892267</v>
+        <v>56.26337667426296</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.19853563389962</v>
       </c>
       <c r="I4">
-        <v>5.332245520858446</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.331359098771727</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.07901547107252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.07730797804487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24291999755382</v>
+        <v>18.24084733505662</v>
       </c>
       <c r="C5">
-        <v>12.79420849233535</v>
+        <v>12.79145235314912</v>
       </c>
       <c r="D5">
-        <v>7.189239045064346</v>
+        <v>7.188975936995856</v>
       </c>
       <c r="E5">
-        <v>9.045981737755049</v>
+        <v>9.045001822853267</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.1444814617066</v>
+        <v>55.15059350190579</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.13740639665362</v>
       </c>
       <c r="I5">
-        <v>5.313917193918596</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.313094924999469</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.73073426784965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.7291821998723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.168511057815</v>
+        <v>18.16647743516099</v>
       </c>
       <c r="C6">
-        <v>12.74069538332398</v>
+        <v>12.73798490219991</v>
       </c>
       <c r="D6">
-        <v>7.16873705079593</v>
+        <v>7.168478840770247</v>
       </c>
       <c r="E6">
-        <v>9.025846179058634</v>
+        <v>9.024878344655212</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.96714687631727</v>
+        <v>54.96462097603136</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.96021859381231</v>
       </c>
       <c r="I6">
-        <v>5.310904545846901</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.310092984598479</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.67240939770102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.67088274145211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68159321284043</v>
+        <v>18.67928359841168</v>
       </c>
       <c r="C7">
-        <v>13.10985002308349</v>
+        <v>13.1068186908823</v>
       </c>
       <c r="D7">
-        <v>7.310722343752056</v>
+        <v>7.310429363240443</v>
       </c>
       <c r="E7">
-        <v>9.165551180830015</v>
+        <v>9.164499953917925</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.1922299256716</v>
+        <v>56.24844915097248</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.1842909319869</v>
       </c>
       <c r="I7">
-        <v>5.331996250448602</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.331110689934873</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.07435122604619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.07264585671861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86515614196001</v>
+        <v>20.86148852570892</v>
       </c>
       <c r="C8">
-        <v>14.6856634001132</v>
+        <v>14.68110216038488</v>
       </c>
       <c r="D8">
-        <v>7.929238772444777</v>
+        <v>7.92876943848759</v>
       </c>
       <c r="E8">
-        <v>9.780578630349698</v>
+        <v>9.779166803432371</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.4574198192826</v>
+        <v>61.74407520895115</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.44516910237158</v>
       </c>
       <c r="I8">
-        <v>5.429841682825809</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.428636670696255</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.77930301824309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.77673948148157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.90008612988735</v>
+        <v>24.89303359947681</v>
       </c>
       <c r="C9">
-        <v>17.62382849148739</v>
+        <v>17.61563976695209</v>
       </c>
       <c r="D9">
-        <v>9.116512355746837</v>
+        <v>9.11556591726298</v>
       </c>
       <c r="E9">
-        <v>10.98475257837992</v>
+        <v>10.98260918930846</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.33348267051534</v>
+        <v>71.97880742554349</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.31271326630686</v>
       </c>
       <c r="I9">
-        <v>5.642370035410503</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.64055095349775</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.90950762705411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.90485843892813</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.76817603732624</v>
+        <v>27.7578734329351</v>
       </c>
       <c r="C10">
-        <v>19.73852744166616</v>
+        <v>19.72697950316291</v>
       </c>
       <c r="D10">
-        <v>9.982169791204798</v>
+        <v>9.980722013218868</v>
       </c>
       <c r="E10">
-        <v>11.87716588319087</v>
+        <v>11.87439761331954</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.41081465770135</v>
+        <v>79.27097232986698</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.38299151150031</v>
       </c>
       <c r="I10">
-        <v>5.815460892913261</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.813177479443099</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.12062111747954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.11397574909836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.06876190092247</v>
+        <v>29.05669884365595</v>
       </c>
       <c r="C11">
-        <v>20.70590345375069</v>
+        <v>20.6925664060845</v>
       </c>
       <c r="D11">
-        <v>10.42362759041277</v>
+        <v>10.42182036043499</v>
       </c>
       <c r="E11">
-        <v>12.28847086042965</v>
+        <v>12.28537354268573</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.62483989268652</v>
+        <v>82.57369424866707</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.59338456509579</v>
       </c>
       <c r="I11">
-        <v>5.899222092041954</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.896716741144863</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>23.11972233409863</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.11199040242226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.56257644796771</v>
+        <v>29.54979114262363</v>
       </c>
       <c r="C12">
-        <v>21.07469493332486</v>
+        <v>21.06062869635523</v>
       </c>
       <c r="D12">
-        <v>10.59165516414016</v>
+        <v>10.5897233599149</v>
       </c>
       <c r="E12">
-        <v>12.44545758497849</v>
+        <v>12.44222586257363</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.84508420372282</v>
+        <v>83.82634476147332</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.82634476147327</v>
       </c>
       <c r="I12">
-        <v>5.931815276129537</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.92922329565716</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.49849084633732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.49031170821027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.45612990232802</v>
+        <v>29.44350292784351</v>
       </c>
       <c r="C13">
-        <v>20.99512695025748</v>
+        <v>20.98122034596214</v>
       </c>
       <c r="D13">
-        <v>10.55546254008583</v>
+        <v>10.55355817797872</v>
       </c>
       <c r="E13">
-        <v>12.41158348976581</v>
+        <v>12.40838121912898</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.58206526455869</v>
+        <v>83.55639727225051</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.55639727225042</v>
       </c>
       <c r="I13">
-        <v>5.924753922627408</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.922180736177098</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.41687041403782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.40878938704664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.1093491312761</v>
+        <v>29.09722787741412</v>
       </c>
       <c r="C14">
-        <v>20.73618321811491</v>
+        <v>20.72278731768794</v>
       </c>
       <c r="D14">
-        <v>10.43745012796615</v>
+        <v>10.43563291823924</v>
       </c>
       <c r="E14">
-        <v>12.30135822747439</v>
+        <v>12.29825007304897</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.72513953601465</v>
+        <v>82.6766829847607</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.69356552945169</v>
       </c>
       <c r="I14">
-        <v>5.901884986168945</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.899372567701431</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23.15086575016993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.14309781602673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.897172606532</v>
+        <v>28.88535332719655</v>
       </c>
       <c r="C15">
-        <v>20.57795268491865</v>
+        <v>20.56486235474904</v>
       </c>
       <c r="D15">
-        <v>10.36516670912396</v>
+        <v>10.36340117054138</v>
       </c>
       <c r="E15">
-        <v>12.23401957356684</v>
+        <v>12.2309676675494</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.20079851768372</v>
+        <v>82.13823289829298</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>82.16984116628286</v>
       </c>
       <c r="I15">
-        <v>5.887996306280948</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.885520734240444</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.98803466967866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.98045348755733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68324742440524</v>
+        <v>27.67305304149644</v>
       </c>
       <c r="C16">
-        <v>19.67554951742428</v>
+        <v>19.66411216222084</v>
       </c>
       <c r="D16">
-        <v>9.956369241848204</v>
+        <v>9.954938750855916</v>
       </c>
       <c r="E16">
-        <v>11.85042978979114</v>
+        <v>11.84768186579294</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.20097047249374</v>
+        <v>79.05515999675161</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.17337375367343</v>
       </c>
       <c r="I16">
-        <v>5.810100006096765</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.807830801530474</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.05530284132216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.0487241185506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.9386819471528</v>
+        <v>26.9294032005877</v>
       </c>
       <c r="C17">
-        <v>19.12439606304907</v>
+        <v>19.11389745449488</v>
       </c>
       <c r="D17">
-        <v>9.730552069487503</v>
+        <v>9.729266276301809</v>
       </c>
       <c r="E17">
-        <v>11.61676040756759</v>
+        <v>11.61418550305893</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.36171282401985</v>
+        <v>77.16260599987275</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.33605040453781</v>
       </c>
       <c r="I17">
-        <v>5.76369475359491</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.761548789284135</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.48225585889483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.47624040251547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50989953707731</v>
+        <v>26.50112206919398</v>
       </c>
       <c r="C18">
-        <v>18.80777001661419</v>
+        <v>18.79778788231874</v>
       </c>
       <c r="D18">
-        <v>9.600843158026159</v>
+        <v>9.599635361406984</v>
       </c>
       <c r="E18">
-        <v>11.48282662069871</v>
+        <v>11.48034727869734</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.30300686516027</v>
+        <v>76.07238860438144</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.27841956729941</v>
       </c>
       <c r="I18">
-        <v>5.737465064112193</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.73538905852952</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.15191700505824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.14620950815391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.36458084555874</v>
+        <v>26.35596911196166</v>
       </c>
       <c r="C19">
-        <v>18.70058750925701</v>
+        <v>18.6907765604794</v>
       </c>
       <c r="D19">
-        <v>9.556944432467951</v>
+        <v>9.555762227305218</v>
       </c>
       <c r="E19">
-        <v>11.43754745674784</v>
+        <v>11.43509987310236</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.94430616210583</v>
+        <v>75.70286786822423</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.92007722860778</v>
       </c>
       <c r="I19">
-        <v>5.728659416095132</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.726606963512062</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>21.039906627167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.03430089482396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01798475832965</v>
+        <v>27.00861125703176</v>
       </c>
       <c r="C20">
-        <v>19.18301690818068</v>
+        <v>19.17242088267218</v>
       </c>
       <c r="D20">
-        <v>9.754569716033087</v>
+        <v>9.753269080849515</v>
       </c>
       <c r="E20">
-        <v>11.64158375344308</v>
+        <v>11.63899086001748</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.55756435718824</v>
+        <v>77.36421883108125</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.5317000935534</v>
       </c>
       <c r="I20">
-        <v>5.76858595226286</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.766426970852001</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.54332506994404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.53725137104431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.21115349330642</v>
+        <v>29.19888535753583</v>
       </c>
       <c r="C21">
-        <v>20.81215832261285</v>
+        <v>20.79861396107027</v>
       </c>
       <c r="D21">
-        <v>10.47211147971431</v>
+        <v>10.47026903651259</v>
       </c>
       <c r="E21">
-        <v>12.33369598349769</v>
+        <v>12.3305604848712</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.97671569268722</v>
+        <v>82.93498383452057</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.94484248641484</v>
       </c>
       <c r="I21">
-        <v>5.908576965371197</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.906046778726511</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.22897290406679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.22111407879545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.65349364212497</v>
+        <v>30.63899735833148</v>
       </c>
       <c r="C22">
-        <v>21.89246683590224</v>
+        <v>21.87668281555619</v>
       </c>
       <c r="D22">
-        <v>10.96168775479329</v>
+        <v>10.95945482571414</v>
       </c>
       <c r="E22">
-        <v>12.79357991431108</v>
+        <v>12.79002988883212</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.53973509271827</v>
+        <v>86.59025852401608</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>86.59025852407258</v>
       </c>
       <c r="I22">
-        <v>6.005274937924157</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.002486197379127</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>24.33412670189376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.32488458373833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.88208017974061</v>
+        <v>29.86881067556207</v>
       </c>
       <c r="C23">
-        <v>21.31376024513976</v>
+        <v>21.29920656308554</v>
       </c>
       <c r="D23">
-        <v>10.7001974303806</v>
+        <v>10.69818125003115</v>
       </c>
       <c r="E23">
-        <v>12.54723829111805</v>
+        <v>12.54391651895184</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63447151128366</v>
+        <v>84.63634376762764</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>84.63634376762815</v>
       </c>
       <c r="I23">
-        <v>5.953125734098945</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.950476928234083</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.74338940152233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.73490996032605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.98213434132135</v>
+        <v>26.97280375587943</v>
       </c>
       <c r="C24">
-        <v>19.15651379894053</v>
+        <v>19.1459618869927</v>
       </c>
       <c r="D24">
-        <v>9.743711008038156</v>
+        <v>9.742417098862452</v>
       </c>
       <c r="E24">
-        <v>11.63035988739449</v>
+        <v>11.6277751387011</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.46902418429022</v>
+        <v>77.27307669615526</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.44325128724921</v>
       </c>
       <c r="I24">
-        <v>5.766373252711925</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.764220159043822</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.5157185408635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.50967122214143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8301138880454</v>
+        <v>23.82408140785025</v>
       </c>
       <c r="C25">
-        <v>16.84085391772309</v>
+        <v>16.83374005845809</v>
       </c>
       <c r="D25">
-        <v>8.797403718033609</v>
+        <v>8.796606341040079</v>
       </c>
       <c r="E25">
-        <v>10.65854159206019</v>
+        <v>10.65660486235877</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.70190750222642</v>
+        <v>69.25929864546532</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.68351607211152</v>
       </c>
       <c r="I25">
-        <v>5.582271459479584</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.580618862070169</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.08177229638462</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.07774889692118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.43438606999254</v>
+        <v>24.4318889995473</v>
       </c>
       <c r="C2">
-        <v>15.09586698674423</v>
+        <v>11.12581043915716</v>
       </c>
       <c r="D2">
-        <v>8.094381848445561</v>
+        <v>8.812975775038776</v>
       </c>
       <c r="E2">
-        <v>9.945399783230256</v>
+        <v>7.760980047475387</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.19363264985402</v>
+        <v>2.155855328299818</v>
       </c>
       <c r="H2">
-        <v>63.83777695734422</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.456329222702898</v>
+        <v>4.833026923255472</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.773820258854174</v>
       </c>
       <c r="M2">
-        <v>17.22275490447016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>66.3419968711183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75279026008449</v>
+        <v>23.21341017596343</v>
       </c>
       <c r="C3">
-        <v>13.88023322455854</v>
+        <v>10.21634724614587</v>
       </c>
       <c r="D3">
-        <v>7.611936980650561</v>
+        <v>8.625259092324331</v>
       </c>
       <c r="E3">
-        <v>9.46296896144977</v>
+        <v>7.722844687407565</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>58.94613394188502</v>
+        <v>2.173814551061941</v>
       </c>
       <c r="H3">
-        <v>59.76275770686209</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.377480236426108</v>
+        <v>4.815936277290326</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.653055291684849</v>
       </c>
       <c r="M3">
-        <v>15.91202646328125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>62.99549569416664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68523828240189</v>
+        <v>22.47733032397555</v>
       </c>
       <c r="C4">
-        <v>13.11110379351419</v>
+        <v>9.641547281727842</v>
       </c>
       <c r="D4">
-        <v>7.312085975177832</v>
+        <v>8.515246290834986</v>
       </c>
       <c r="E4">
-        <v>9.166132902460355</v>
+        <v>7.702108860017351</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.26337667426296</v>
+        <v>2.184942380863266</v>
       </c>
       <c r="H4">
-        <v>57.19853563389962</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.331359098771727</v>
+        <v>4.805700184463705</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.587399095917373</v>
       </c>
       <c r="M4">
-        <v>15.07730797804487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>60.91373701904251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24084733505662</v>
+        <v>22.18050276937229</v>
       </c>
       <c r="C5">
-        <v>12.79145235314912</v>
+        <v>9.402911943194644</v>
       </c>
       <c r="D5">
-        <v>7.188975936995856</v>
+        <v>8.471679856131981</v>
       </c>
       <c r="E5">
-        <v>9.045001822853267</v>
+        <v>7.69429028014411</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.15059350190579</v>
+        <v>2.189511405862798</v>
       </c>
       <c r="H5">
-        <v>56.13740639665362</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.313094924999469</v>
+        <v>4.801577694946642</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.562675788276733</v>
       </c>
       <c r="M5">
-        <v>14.7291821998723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>60.05851989488319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16647743516099</v>
+        <v>22.13140856778072</v>
       </c>
       <c r="C6">
-        <v>12.73798490219991</v>
+        <v>9.363013902109952</v>
       </c>
       <c r="D6">
-        <v>7.168478840770247</v>
+        <v>8.464520616140319</v>
       </c>
       <c r="E6">
-        <v>9.024878344655212</v>
+        <v>7.693028996490259</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.96462097603136</v>
+        <v>2.190272405500611</v>
       </c>
       <c r="H6">
-        <v>55.96021859381231</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.310092984598479</v>
+        <v>4.800895679610348</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.558690344417029</v>
       </c>
       <c r="M6">
-        <v>14.67088274145211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>59.9160975716989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67928359841168</v>
+        <v>22.4733143274996</v>
       </c>
       <c r="C7">
-        <v>13.1068186908823</v>
+        <v>9.638347104766931</v>
       </c>
       <c r="D7">
-        <v>7.310429363240443</v>
+        <v>8.514653684435487</v>
       </c>
       <c r="E7">
-        <v>9.164499953917925</v>
+        <v>7.702000911861908</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.24844915097248</v>
+        <v>2.185003850183895</v>
       </c>
       <c r="H7">
-        <v>57.1842909319869</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.331110689934873</v>
+        <v>4.805644409086262</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.587057572332263</v>
       </c>
       <c r="M7">
-        <v>15.07264585671861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>60.90223109318147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86148852570892</v>
+        <v>24.0092757204808</v>
       </c>
       <c r="C8">
-        <v>14.68110216038488</v>
+        <v>10.81544209811766</v>
       </c>
       <c r="D8">
-        <v>7.92876943848759</v>
+        <v>8.747126699829796</v>
       </c>
       <c r="E8">
-        <v>9.779166803432371</v>
+        <v>7.747247842543841</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.74407520895115</v>
+        <v>2.162032536895468</v>
       </c>
       <c r="H8">
-        <v>62.44516910237158</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.428636670696255</v>
+        <v>4.827070249980303</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.730352436062047</v>
       </c>
       <c r="M8">
-        <v>16.77673948148157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>65.19359309195063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89303359947681</v>
+        <v>27.119516753283</v>
       </c>
       <c r="C9">
-        <v>17.61563976695209</v>
+        <v>13.00968026481175</v>
       </c>
       <c r="D9">
-        <v>9.11556591726298</v>
+        <v>9.247684180872882</v>
       </c>
       <c r="E9">
-        <v>10.98260918930846</v>
+        <v>7.859446336820544</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.97880742554349</v>
+        <v>2.117307521019415</v>
       </c>
       <c r="H9">
-        <v>72.31271326630686</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.64055095349775</v>
+        <v>4.871993372770506</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.08399342070382</v>
       </c>
       <c r="M9">
-        <v>19.90485843892813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>73.41319134182899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.7578734329351</v>
+        <v>29.54210512939045</v>
       </c>
       <c r="C10">
-        <v>19.72697950316291</v>
+        <v>14.58070805181652</v>
       </c>
       <c r="D10">
-        <v>9.980722013218868</v>
+        <v>9.648276083752108</v>
       </c>
       <c r="E10">
-        <v>11.87439761331954</v>
+        <v>7.959875690503006</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.27097232986698</v>
+        <v>2.083832069331742</v>
       </c>
       <c r="H10">
-        <v>79.38299151150031</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.813177479443099</v>
+        <v>4.908264543845179</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.39671910381367</v>
       </c>
       <c r="M10">
-        <v>22.11397574909836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>79.3828110852766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.05669884365595</v>
+        <v>30.78739640929109</v>
       </c>
       <c r="C11">
-        <v>20.6925664060845</v>
+        <v>15.2951107474117</v>
       </c>
       <c r="D11">
-        <v>10.42182036043499</v>
+        <v>9.839432481788467</v>
       </c>
       <c r="E11">
-        <v>12.28537354268573</v>
+        <v>8.010531585005891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.57369424866707</v>
+        <v>2.068231886462025</v>
       </c>
       <c r="H11">
-        <v>82.59338456509579</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.896716741144863</v>
+        <v>4.925922492841287</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.552950653188486</v>
       </c>
       <c r="M11">
-        <v>23.11199040242226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>82.1029341886054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.54979114262363</v>
+        <v>31.26110249222991</v>
       </c>
       <c r="C12">
-        <v>21.06062869635523</v>
+        <v>15.56655255191568</v>
       </c>
       <c r="D12">
-        <v>10.5897233599149</v>
+        <v>9.913308590682252</v>
       </c>
       <c r="E12">
-        <v>12.44222586257363</v>
+        <v>8.030542521989545</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.82634476147332</v>
+        <v>2.062245120706827</v>
       </c>
       <c r="H12">
-        <v>83.82634476147327</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.92922329565716</v>
+        <v>4.932825447515701</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.614390681755955</v>
       </c>
       <c r="M12">
-        <v>23.49031170821027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>83.13600213284488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.44350292784351</v>
+        <v>31.15896262627125</v>
       </c>
       <c r="C13">
-        <v>20.98122034596214</v>
+        <v>15.50803426012626</v>
       </c>
       <c r="D13">
-        <v>10.55355817797872</v>
+        <v>9.897327859547646</v>
       </c>
       <c r="E13">
-        <v>12.40838121912898</v>
+        <v>8.026193840303881</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.55639727225051</v>
+        <v>2.063538486596085</v>
       </c>
       <c r="H13">
-        <v>83.55639727225042</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.922180736177098</v>
+        <v>4.931328217414928</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.601052080272773</v>
       </c>
       <c r="M13">
-        <v>23.40878938704664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.91333236014471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.09722787741412</v>
+        <v>30.82631723910121</v>
       </c>
       <c r="C14">
-        <v>20.72278731768794</v>
+        <v>15.31741779639149</v>
       </c>
       <c r="D14">
-        <v>10.43563291823924</v>
+        <v>9.845479064769592</v>
       </c>
       <c r="E14">
-        <v>12.29825007304897</v>
+        <v>8.012160538232505</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.6766829847607</v>
+        <v>2.06774111218008</v>
       </c>
       <c r="H14">
-        <v>82.69356552945169</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.899372567701431</v>
+        <v>4.926485736217159</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.557957901844825</v>
       </c>
       <c r="M14">
-        <v>23.14309781602673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>82.18784857612488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.88535332719655</v>
+        <v>30.62288376476143</v>
       </c>
       <c r="C15">
-        <v>20.56486235474904</v>
+        <v>15.2008110246174</v>
       </c>
       <c r="D15">
-        <v>10.36340117054138</v>
+        <v>9.813921291897943</v>
       </c>
       <c r="E15">
-        <v>12.2309676675494</v>
+        <v>8.00367649777049</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>82.13823289829298</v>
+        <v>2.070304137266193</v>
       </c>
       <c r="H15">
-        <v>82.16984116628286</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.885520734240444</v>
+        <v>4.923549442550932</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.531867387256113</v>
       </c>
       <c r="M15">
-        <v>22.98045348755733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.74394477816395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.67305304149644</v>
+        <v>29.46094771743606</v>
       </c>
       <c r="C16">
-        <v>19.66411216222084</v>
+        <v>14.53409077107002</v>
       </c>
       <c r="D16">
-        <v>9.954938750855916</v>
+        <v>9.635979426422608</v>
       </c>
       <c r="E16">
-        <v>11.84768186579294</v>
+        <v>7.956674366042941</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.05515999675161</v>
+        <v>2.084842024135344</v>
       </c>
       <c r="H16">
-        <v>79.17337375367343</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.807830801530474</v>
+        <v>4.907137824288307</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.386811669725589</v>
       </c>
       <c r="M16">
-        <v>22.0487241185506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>79.20532127051969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.9294032005877</v>
+        <v>28.78793762763466</v>
       </c>
       <c r="C17">
-        <v>19.11389745449488</v>
+        <v>14.12561661101052</v>
       </c>
       <c r="D17">
-        <v>9.729266276301809</v>
+        <v>9.529232447237368</v>
       </c>
       <c r="E17">
-        <v>11.61418550305893</v>
+        <v>7.929186163815498</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.16260599987275</v>
+        <v>2.093648755423458</v>
       </c>
       <c r="H17">
-        <v>77.33605040453781</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.761548789284135</v>
+        <v>4.897397997352567</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.301574668166905</v>
       </c>
       <c r="M17">
-        <v>21.47624040251547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.65057569646275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.50112206919398</v>
+        <v>28.432830851299</v>
       </c>
       <c r="C18">
-        <v>18.79778788231874</v>
+        <v>13.89057915279974</v>
       </c>
       <c r="D18">
-        <v>9.599635361406984</v>
+        <v>9.468659191201453</v>
       </c>
       <c r="E18">
-        <v>11.48034727869734</v>
+        <v>7.913835339598571</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.07238860438144</v>
+        <v>2.098680992860115</v>
       </c>
       <c r="H18">
-        <v>76.27841956729941</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.73538905852952</v>
+        <v>4.891901292135521</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.253844193800836</v>
       </c>
       <c r="M18">
-        <v>21.14620950815391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.75657216748712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.35596911196166</v>
+        <v>28.31295233520293</v>
       </c>
       <c r="C19">
-        <v>18.6907765604794</v>
+        <v>13.81095812608526</v>
       </c>
       <c r="D19">
-        <v>9.555762227305218</v>
+        <v>9.448286442099498</v>
       </c>
       <c r="E19">
-        <v>11.43509987310236</v>
+        <v>7.908713704321511</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.70286786822423</v>
+        <v>2.10037981592427</v>
       </c>
       <c r="H19">
-        <v>75.92007722860778</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.726606963512062</v>
+        <v>4.890056985778143</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.23789883208037</v>
       </c>
       <c r="M19">
-        <v>21.03430089482396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>76.45385946881893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.00861125703176</v>
+        <v>28.85383427404169</v>
       </c>
       <c r="C20">
-        <v>19.17242088267218</v>
+        <v>14.16910296181928</v>
       </c>
       <c r="D20">
-        <v>9.753269080849515</v>
+        <v>9.540509178935849</v>
       </c>
       <c r="E20">
-        <v>11.63899086001748</v>
+        <v>7.932064014311388</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.36421883108125</v>
+        <v>2.092714863439886</v>
       </c>
       <c r="H20">
-        <v>77.5317000935534</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.766426970852001</v>
+        <v>4.898423591210113</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.310512462221494</v>
       </c>
       <c r="M20">
-        <v>21.53725137104431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.81604082664589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.19888535753583</v>
+        <v>30.92395353021307</v>
       </c>
       <c r="C21">
-        <v>20.79861396107027</v>
+        <v>15.37337287855982</v>
       </c>
       <c r="D21">
-        <v>10.47026903651259</v>
+        <v>9.860665943265337</v>
       </c>
       <c r="E21">
-        <v>12.3305604848712</v>
+        <v>8.01625892437607</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.93498383452057</v>
+        <v>2.066509089682035</v>
       </c>
       <c r="H21">
-        <v>82.94484248641484</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.906046778726511</v>
+        <v>4.92790175806879</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.570551370697766</v>
       </c>
       <c r="M21">
-        <v>23.22111407879545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.40083622427267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.63899735833148</v>
+        <v>32.30837254732303</v>
       </c>
       <c r="C22">
-        <v>21.87668281555619</v>
+        <v>16.16639180171704</v>
       </c>
       <c r="D22">
-        <v>10.95945482571414</v>
+        <v>10.07873240036948</v>
       </c>
       <c r="E22">
-        <v>12.79002988883212</v>
+        <v>8.076189870016641</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.59025852401608</v>
+        <v>2.048902704070097</v>
       </c>
       <c r="H22">
-        <v>86.59025852407258</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.002486197379127</v>
+        <v>4.948461675730298</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.753963791246825</v>
       </c>
       <c r="M22">
-        <v>24.32488458373833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.41654097737312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.86881067556207</v>
+        <v>31.56775054544156</v>
       </c>
       <c r="C23">
-        <v>21.29920656308554</v>
+        <v>15.7422141265116</v>
       </c>
       <c r="D23">
-        <v>10.69818125003115</v>
+        <v>9.961453400436064</v>
       </c>
       <c r="E23">
-        <v>12.54391651895184</v>
+        <v>8.043709475290754</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63634376762764</v>
+        <v>2.058353758494089</v>
       </c>
       <c r="H23">
-        <v>84.63634376762815</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.950476928234083</v>
+        <v>4.937349889039879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.654732672609908</v>
       </c>
       <c r="M23">
-        <v>23.73490996032605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.80424589395189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97280375587943</v>
+        <v>28.82403607554915</v>
       </c>
       <c r="C24">
-        <v>19.1459618869927</v>
+        <v>14.14944347464224</v>
       </c>
       <c r="D24">
-        <v>9.742417098862452</v>
+        <v>9.535408500716565</v>
       </c>
       <c r="E24">
-        <v>11.6277751387011</v>
+        <v>7.930761536857347</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.27307669615526</v>
+        <v>2.093137170298237</v>
       </c>
       <c r="H24">
-        <v>77.44325128724921</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.764220159043822</v>
+        <v>4.897959603439183</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.306467738488157</v>
       </c>
       <c r="M24">
-        <v>21.50967122214143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.7412347065861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.82408140785025</v>
+        <v>26.26664928733558</v>
       </c>
       <c r="C25">
-        <v>16.83374005845809</v>
+        <v>12.42572925668815</v>
       </c>
       <c r="D25">
-        <v>8.796606341040079</v>
+        <v>9.106992525390382</v>
       </c>
       <c r="E25">
-        <v>10.65660486235877</v>
+        <v>7.826239243569614</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.25929864546532</v>
+        <v>2.129446967792718</v>
       </c>
       <c r="H25">
-        <v>69.68351607211152</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.580618862070169</v>
+        <v>4.859393528502316</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.979744463767924</v>
       </c>
       <c r="M25">
-        <v>19.07774889692118</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>71.20671730792424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.4318889995473</v>
+        <v>15.84193455470558</v>
       </c>
       <c r="C2">
-        <v>11.12581043915716</v>
+        <v>8.974026335802126</v>
       </c>
       <c r="D2">
-        <v>8.812975775038776</v>
+        <v>12.13114435449559</v>
       </c>
       <c r="E2">
-        <v>7.760980047475387</v>
+        <v>13.1277141465883</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.155855328299818</v>
+        <v>46.69674388351358</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.32941884120829</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.833026923255472</v>
+        <v>5.918016321897738</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.75114730730828</v>
       </c>
       <c r="L2">
-        <v>8.773820258854174</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.04838790663505</v>
       </c>
       <c r="O2">
-        <v>66.3419968711183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.21341017596343</v>
+        <v>14.89373134944129</v>
       </c>
       <c r="C3">
-        <v>10.21634724614587</v>
+        <v>8.335383869114937</v>
       </c>
       <c r="D3">
-        <v>8.625259092324331</v>
+        <v>11.63096687084799</v>
       </c>
       <c r="E3">
-        <v>7.722844687407565</v>
+        <v>12.59695397228412</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.173814551061941</v>
+        <v>45.34261180912893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14.1863926853437</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.815936277290326</v>
+        <v>5.834368160391063</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.99042865093142</v>
       </c>
       <c r="L3">
-        <v>8.653055291684849</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>15.22489723852045</v>
       </c>
       <c r="O3">
-        <v>62.99549569416664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.47733032397555</v>
+        <v>14.2912299688964</v>
       </c>
       <c r="C4">
-        <v>9.641547281727842</v>
+        <v>7.922930523826654</v>
       </c>
       <c r="D4">
-        <v>8.515246290834986</v>
+        <v>11.32250600435251</v>
       </c>
       <c r="E4">
-        <v>7.702108860017351</v>
+        <v>12.27033319371331</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.184942380863266</v>
+        <v>44.53455448866023</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.10790106543341</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.805700184463705</v>
+        <v>5.7860800598269</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.51013475829754</v>
       </c>
       <c r="L4">
-        <v>8.587399095917373</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>15.3377240164934</v>
       </c>
       <c r="O4">
-        <v>60.91373701904251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.18050276937229</v>
+        <v>14.04079441812594</v>
       </c>
       <c r="C5">
-        <v>9.402911943194644</v>
+        <v>7.74968353205268</v>
       </c>
       <c r="D5">
-        <v>8.471679856131981</v>
+        <v>11.19662077439466</v>
       </c>
       <c r="E5">
-        <v>7.69429028014411</v>
+        <v>12.13720887889181</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.189511405862798</v>
+        <v>44.2113108828609</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.07818744812409</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.801577694946642</v>
+        <v>5.767166787161862</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.31128786032066</v>
       </c>
       <c r="L5">
-        <v>8.562675788276733</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.38480127397696</v>
       </c>
       <c r="O5">
-        <v>60.05851989488319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.13140856778072</v>
+        <v>13.9989198966841</v>
       </c>
       <c r="C6">
-        <v>9.363013902109952</v>
+        <v>7.720602213906829</v>
       </c>
       <c r="D6">
-        <v>8.464520616140319</v>
+        <v>11.17571135898798</v>
       </c>
       <c r="E6">
-        <v>7.693028996490259</v>
+        <v>12.11510732742653</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.190272405500611</v>
+        <v>44.15800660032994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.07338860725831</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.800895679610348</v>
+        <v>5.764072178426396</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.27808755883737</v>
       </c>
       <c r="L6">
-        <v>8.558690344417029</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>15.39268431139246</v>
       </c>
       <c r="O6">
-        <v>59.9160975716989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.4733143274996</v>
+        <v>14.28787209714532</v>
       </c>
       <c r="C7">
-        <v>9.638347104766931</v>
+        <v>7.920615056213876</v>
       </c>
       <c r="D7">
-        <v>8.514653684435487</v>
+        <v>11.32080880209745</v>
       </c>
       <c r="E7">
-        <v>7.702000911861908</v>
+        <v>12.26853770208083</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.185003850183895</v>
+        <v>44.53017040958383</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.10749123396584</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.805644409086262</v>
+        <v>5.785821904425009</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.5074653891272</v>
       </c>
       <c r="L7">
-        <v>8.587057572332263</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>15.33835448863188</v>
       </c>
       <c r="O7">
-        <v>60.90223109318147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.0092757204808</v>
+        <v>15.51930690030031</v>
       </c>
       <c r="C8">
-        <v>10.81544209811766</v>
+        <v>8.758003974864186</v>
       </c>
       <c r="D8">
-        <v>8.747126699829796</v>
+        <v>11.9590496250896</v>
       </c>
       <c r="E8">
-        <v>7.747247842543841</v>
+        <v>12.94494967426946</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.162032536895468</v>
+        <v>46.22508274866231</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.27812402529032</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.827070249980303</v>
+        <v>5.88853214028298</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.49169806865097</v>
       </c>
       <c r="L8">
-        <v>8.730352436062047</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.10831220650776</v>
       </c>
       <c r="O8">
-        <v>65.19359309195063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.119516753283</v>
+        <v>17.80630095010717</v>
       </c>
       <c r="C9">
-        <v>13.00968026481175</v>
+        <v>10.24177158960344</v>
       </c>
       <c r="D9">
-        <v>9.247684180872882</v>
+        <v>13.19426874921936</v>
       </c>
       <c r="E9">
-        <v>7.859446336820544</v>
+        <v>14.25969454910643</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.117307521019415</v>
+        <v>49.72786861096755</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.68997971531052</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.871993372770506</v>
+        <v>6.114677281311351</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.49541839392266</v>
       </c>
       <c r="L9">
-        <v>9.08399342070382</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.69355453858027</v>
       </c>
       <c r="O9">
-        <v>73.41319134182899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.54210512939045</v>
+        <v>19.5184858239749</v>
       </c>
       <c r="C10">
-        <v>14.58070805181652</v>
+        <v>11.23984043646981</v>
       </c>
       <c r="D10">
-        <v>9.648276083752108</v>
+        <v>14.08595960490471</v>
       </c>
       <c r="E10">
-        <v>7.959875690503006</v>
+        <v>15.21242649106458</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.083832069331742</v>
+        <v>52.40410352264134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.04415023471324</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.908264543845179</v>
+        <v>6.296436140655233</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.99137218908099</v>
       </c>
       <c r="L10">
-        <v>9.39671910381367</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.41278032189019</v>
       </c>
       <c r="O10">
-        <v>79.3828110852766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.78739640929109</v>
+        <v>20.26462531832799</v>
       </c>
       <c r="C11">
-        <v>15.2951107474117</v>
+        <v>11.67500862570108</v>
       </c>
       <c r="D11">
-        <v>9.839432481788467</v>
+        <v>14.48744585503666</v>
       </c>
       <c r="E11">
-        <v>8.010531585005891</v>
+        <v>15.64222898837814</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.068231886462025</v>
+        <v>53.64340803873279</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.21747294746244</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.925922492841287</v>
+        <v>6.382652183572134</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.6424979618304</v>
       </c>
       <c r="L11">
-        <v>9.552950653188486</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.29076138419547</v>
       </c>
       <c r="O11">
-        <v>82.1029341886054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.26110249222991</v>
+        <v>20.54259678246063</v>
       </c>
       <c r="C12">
-        <v>15.56655255191568</v>
+        <v>11.83718551793205</v>
       </c>
       <c r="D12">
-        <v>9.913308590682252</v>
+        <v>14.6388538286836</v>
       </c>
       <c r="E12">
-        <v>8.030542521989545</v>
+        <v>15.80443915045076</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.062245120706827</v>
+        <v>54.11587558709026</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.28494822340372</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.932825447515701</v>
+        <v>6.415822031582205</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.88497557855654</v>
       </c>
       <c r="L12">
-        <v>9.614390681755955</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.24543042060698</v>
       </c>
       <c r="O12">
-        <v>83.13600213284488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.15896262627125</v>
+        <v>20.48293184389654</v>
       </c>
       <c r="C13">
-        <v>15.50803426012626</v>
+        <v>11.80237228732741</v>
       </c>
       <c r="D13">
-        <v>9.897327859547646</v>
+        <v>14.60627345804814</v>
       </c>
       <c r="E13">
-        <v>8.026193840303881</v>
+        <v>15.7695287690386</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.063538486596085</v>
+        <v>54.01397913425314</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.27033286611568</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.931328217414928</v>
+        <v>6.408654856342674</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.83293326095491</v>
       </c>
       <c r="L13">
-        <v>9.601052080272773</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.25515336958844</v>
       </c>
       <c r="O13">
-        <v>82.91333236014471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.82631723910121</v>
+        <v>20.2875850725088</v>
       </c>
       <c r="C14">
-        <v>15.31741779639149</v>
+        <v>11.68840275387161</v>
       </c>
       <c r="D14">
-        <v>9.845479064769592</v>
+        <v>14.49991490730805</v>
       </c>
       <c r="E14">
-        <v>8.012160538232505</v>
+        <v>15.65558513984175</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.06774111218008</v>
+        <v>53.68221431303427</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.22298675282707</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.926485736217159</v>
+        <v>6.385370541564837</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.66252787551382</v>
       </c>
       <c r="L14">
-        <v>9.557957901844825</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.28701409671329</v>
       </c>
       <c r="O14">
-        <v>82.18784857612488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.62288376476143</v>
+        <v>20.16733792458819</v>
       </c>
       <c r="C15">
-        <v>15.2008110246174</v>
+        <v>11.61825611795681</v>
       </c>
       <c r="D15">
-        <v>9.813921291897943</v>
+        <v>14.43468524010571</v>
       </c>
       <c r="E15">
-        <v>8.00367649777049</v>
+        <v>15.58571979359603</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.070304137266193</v>
+        <v>53.47941348996768</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.19422839821971</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.923549442550932</v>
+        <v>6.371176627111912</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.55762133981306</v>
       </c>
       <c r="L15">
-        <v>9.531867387256113</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.30664543743546</v>
       </c>
       <c r="O15">
-        <v>81.74394477816395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46094771743606</v>
+        <v>19.46907597104548</v>
       </c>
       <c r="C16">
-        <v>14.53409077107002</v>
+        <v>11.21103001690821</v>
       </c>
       <c r="D16">
-        <v>9.635979426422608</v>
+        <v>14.05963494044829</v>
       </c>
       <c r="E16">
-        <v>7.956674366042941</v>
+        <v>15.18426232836409</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.084842024135344</v>
+        <v>52.32355275130728</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.03307608907405</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.907137824288307</v>
+        <v>6.290873911152177</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.94823958961994</v>
       </c>
       <c r="L16">
-        <v>9.386811669725589</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.42087380735312</v>
       </c>
       <c r="O16">
-        <v>79.20532127051969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78793762763466</v>
+        <v>19.03241805621144</v>
       </c>
       <c r="C17">
-        <v>14.12561661101052</v>
+        <v>10.95644801839305</v>
       </c>
       <c r="D17">
-        <v>9.529232447237368</v>
+        <v>13.82846203875451</v>
       </c>
       <c r="E17">
-        <v>7.929186163815498</v>
+        <v>14.93702967484208</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.093648755423458</v>
+        <v>51.62006817435431</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.93740084078374</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.897397997352567</v>
+        <v>6.242524475157995</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.56696951380788</v>
       </c>
       <c r="L17">
-        <v>9.301574668166905</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.49244653352217</v>
       </c>
       <c r="O17">
-        <v>77.65057569646275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.432830851299</v>
+        <v>18.77817315907784</v>
       </c>
       <c r="C18">
-        <v>13.89057915279974</v>
+        <v>10.80823761527749</v>
       </c>
       <c r="D18">
-        <v>9.468659191201453</v>
+        <v>13.69510720220955</v>
       </c>
       <c r="E18">
-        <v>7.913835339598571</v>
+        <v>14.79448914678678</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098680992860115</v>
+        <v>51.21749582796129</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.88351468092384</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.891901292135521</v>
+        <v>6.215046729635711</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.34489775869</v>
       </c>
       <c r="L18">
-        <v>9.253844193800836</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.53414662286065</v>
       </c>
       <c r="O18">
-        <v>76.75657216748712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31295233520293</v>
+        <v>18.69155558357288</v>
       </c>
       <c r="C19">
-        <v>13.81095812608526</v>
+        <v>10.75774724413925</v>
       </c>
       <c r="D19">
-        <v>9.448286442099498</v>
+        <v>13.64988983330374</v>
       </c>
       <c r="E19">
-        <v>7.908713704321511</v>
+        <v>14.74617051482385</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.10037981592427</v>
+        <v>51.08154475361686</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.86546365495374</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.890056985778143</v>
+        <v>6.205799817358661</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.26922744199877</v>
       </c>
       <c r="L19">
-        <v>9.23789883208037</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.54835565802205</v>
       </c>
       <c r="O19">
-        <v>76.45385946881893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85383427404169</v>
+        <v>19.07922001567698</v>
       </c>
       <c r="C20">
-        <v>14.16910296181928</v>
+        <v>10.98373239940447</v>
       </c>
       <c r="D20">
-        <v>9.540509178935849</v>
+        <v>13.85311147916957</v>
       </c>
       <c r="E20">
-        <v>7.932064014311388</v>
+        <v>14.96338338072253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.092714863439886</v>
+        <v>51.69474282802903</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.94746665920074</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.898423591210113</v>
+        <v>6.247636949627474</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.60784264307027</v>
       </c>
       <c r="L20">
-        <v>9.310512462221494</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.48477193168959</v>
       </c>
       <c r="O20">
-        <v>77.81604082664589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.92395353021307</v>
+        <v>20.34508618386591</v>
       </c>
       <c r="C21">
-        <v>15.37337287855982</v>
+        <v>11.72194840767003</v>
       </c>
       <c r="D21">
-        <v>9.860665943265337</v>
+        <v>14.53117209382762</v>
       </c>
       <c r="E21">
-        <v>8.01625892437607</v>
+        <v>15.68906807610658</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.066509089682035</v>
+        <v>53.7795751154156</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.23684275309438</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.92790175806879</v>
+        <v>6.392195425583208</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.7126899070316</v>
       </c>
       <c r="L21">
-        <v>9.570551370697766</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.27763160070754</v>
       </c>
       <c r="O21">
-        <v>82.40083622427267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.30837254732303</v>
+        <v>21.14580837276046</v>
       </c>
       <c r="C22">
-        <v>16.16639180171704</v>
+        <v>12.18924509982464</v>
       </c>
       <c r="D22">
-        <v>10.07873240036948</v>
+        <v>14.97067882386853</v>
       </c>
       <c r="E22">
-        <v>8.076189870016641</v>
+        <v>16.1601648418243</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.048902704070097</v>
+        <v>55.16067249611928</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.43674657614517</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.948461675730298</v>
+        <v>6.48972245245762</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.41100681311255</v>
       </c>
       <c r="L22">
-        <v>9.753963791246825</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.14738594350924</v>
       </c>
       <c r="O22">
-        <v>85.41654097737312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.56775054544156</v>
+        <v>20.72083281400164</v>
       </c>
       <c r="C23">
-        <v>15.7422141265116</v>
+        <v>11.94119245582981</v>
       </c>
       <c r="D23">
-        <v>9.961453400436064</v>
+        <v>14.73644241865914</v>
       </c>
       <c r="E23">
-        <v>8.043709475290754</v>
+        <v>15.90902491468726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.058353758494089</v>
+        <v>54.42183192734035</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.32903762482769</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.937349889039879</v>
+        <v>6.437386004136349</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.04042794073555</v>
       </c>
       <c r="L23">
-        <v>9.654732672609908</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.21641027960772</v>
       </c>
       <c r="O23">
-        <v>83.80424589395189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82403607554915</v>
+        <v>19.05807084077126</v>
       </c>
       <c r="C24">
-        <v>14.14944347464224</v>
+        <v>10.97140289372954</v>
       </c>
       <c r="D24">
-        <v>9.535408500716565</v>
+        <v>13.84196886765638</v>
       </c>
       <c r="E24">
-        <v>7.930761536857347</v>
+        <v>14.95147012355874</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.093137170298237</v>
+        <v>51.66097659242425</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.94291242426603</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.897959603439183</v>
+        <v>6.245324607325227</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.58937286497794</v>
       </c>
       <c r="L24">
-        <v>9.306467738488157</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.48823990388224</v>
       </c>
       <c r="O24">
-        <v>77.7412347065861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.26664928733558</v>
+        <v>17.17760526069831</v>
       </c>
       <c r="C25">
-        <v>12.42572925668815</v>
+        <v>9.856887989859761</v>
       </c>
       <c r="D25">
-        <v>9.106992525390382</v>
+        <v>12.86255640405965</v>
       </c>
       <c r="E25">
-        <v>7.826239243569614</v>
+        <v>13.90599683837669</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.129446967792718</v>
+        <v>48.76189250323109</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.56983186547716</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.859393528502316</v>
+        <v>6.05079886332325</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.91761024285719</v>
       </c>
       <c r="L25">
-        <v>8.979744463767924</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.80170185671834</v>
       </c>
       <c r="O25">
-        <v>71.20671730792424</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.84193455470558</v>
+        <v>15.5742780612326</v>
       </c>
       <c r="C2">
-        <v>8.974026335802126</v>
+        <v>7.796629849130533</v>
       </c>
       <c r="D2">
-        <v>12.13114435449559</v>
+        <v>15.1723429182464</v>
       </c>
       <c r="E2">
-        <v>13.1277141465883</v>
+        <v>16.60995602762954</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.69674388351358</v>
+        <v>55.09818725783304</v>
       </c>
       <c r="H2">
-        <v>14.32941884120829</v>
+        <v>20.72013471696813</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.918016321897738</v>
+        <v>9.502288842922749</v>
       </c>
       <c r="K2">
-        <v>13.75114730730828</v>
+        <v>15.08719614560593</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.04838790663505</v>
+        <v>22.37534714706104</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.89373134944129</v>
+        <v>15.37699206811062</v>
       </c>
       <c r="C3">
-        <v>8.335383869114937</v>
+        <v>7.656074183994916</v>
       </c>
       <c r="D3">
-        <v>11.63096687084799</v>
+        <v>15.11874594320919</v>
       </c>
       <c r="E3">
-        <v>12.59695397228412</v>
+        <v>16.55716943134362</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.34261180912893</v>
+        <v>54.94265393510328</v>
       </c>
       <c r="H3">
-        <v>14.1863926853437</v>
+        <v>20.7409365053499</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.834368160391063</v>
+        <v>9.51292979004193</v>
       </c>
       <c r="K3">
-        <v>12.99042865093142</v>
+        <v>14.96069891483657</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.22489723852045</v>
+        <v>22.42821639222286</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.2912299688964</v>
+        <v>15.258983038976</v>
       </c>
       <c r="C4">
-        <v>7.922930523826654</v>
+        <v>7.570858047596745</v>
       </c>
       <c r="D4">
-        <v>11.32250600435251</v>
+        <v>15.08928247495458</v>
       </c>
       <c r="E4">
-        <v>12.27033319371331</v>
+        <v>16.5285553120065</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.53455448866023</v>
+        <v>54.86026843848087</v>
       </c>
       <c r="H4">
-        <v>14.10790106543341</v>
+        <v>20.75719596397233</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.7860800598269</v>
+        <v>9.520939294784489</v>
       </c>
       <c r="K4">
-        <v>12.51013475829754</v>
+        <v>14.88642758747457</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.3377240164934</v>
+        <v>22.46260862216643</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.04079441812594</v>
+        <v>15.21173836574301</v>
       </c>
       <c r="C5">
-        <v>7.74968353205268</v>
+        <v>7.536455454470543</v>
       </c>
       <c r="D5">
-        <v>11.19662077439466</v>
+        <v>15.0781500998124</v>
       </c>
       <c r="E5">
-        <v>12.13720887889181</v>
+        <v>16.51785692855492</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.2113108828609</v>
+        <v>54.83000811124321</v>
       </c>
       <c r="H5">
-        <v>14.07818744812409</v>
+        <v>20.76469748064765</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.767166787161862</v>
+        <v>9.524574266383265</v>
       </c>
       <c r="K5">
-        <v>12.31128786032066</v>
+        <v>14.85704604179145</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.38480127397696</v>
+        <v>22.47710947221011</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9989198966841</v>
+        <v>15.20394614891062</v>
       </c>
       <c r="C6">
-        <v>7.720602213906829</v>
+        <v>7.530763957925006</v>
       </c>
       <c r="D6">
-        <v>11.17571135898798</v>
+        <v>15.07635458829554</v>
       </c>
       <c r="E6">
-        <v>12.11510732742653</v>
+        <v>16.51613877061864</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.15800660032994</v>
+        <v>54.82518384044074</v>
       </c>
       <c r="H6">
-        <v>14.07338860725831</v>
+        <v>20.76599595014476</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.764072178426396</v>
+        <v>9.525200255935278</v>
       </c>
       <c r="K6">
-        <v>12.27808755883737</v>
+        <v>14.85222153151754</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.39268431139246</v>
+        <v>22.47954667516238</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.28787209714532</v>
+        <v>15.25834238286041</v>
       </c>
       <c r="C7">
-        <v>7.920615056213876</v>
+        <v>7.570392704772205</v>
       </c>
       <c r="D7">
-        <v>11.32080880209745</v>
+        <v>15.08912879050627</v>
       </c>
       <c r="E7">
-        <v>12.26853770208083</v>
+        <v>16.52840712551618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.53017040958383</v>
+        <v>54.85984690810692</v>
       </c>
       <c r="H7">
-        <v>14.10749123396584</v>
+        <v>20.75729358836157</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.785821904425009</v>
+        <v>9.52098681516728</v>
       </c>
       <c r="K7">
-        <v>12.5074653891272</v>
+        <v>14.88602771749339</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.33835448863188</v>
+        <v>22.4628022185504</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.51930690030031</v>
+        <v>15.50564112140222</v>
       </c>
       <c r="C8">
-        <v>8.758003974864186</v>
+        <v>7.747971348102823</v>
       </c>
       <c r="D8">
-        <v>11.9590496250896</v>
+        <v>15.1531526504807</v>
       </c>
       <c r="E8">
-        <v>12.94494967426946</v>
+        <v>16.59097183196092</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.22508274866231</v>
+        <v>55.04184803366145</v>
       </c>
       <c r="H8">
-        <v>14.27812402529032</v>
+        <v>20.72658276550481</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.88853214028298</v>
+        <v>9.505651472887708</v>
       </c>
       <c r="K8">
-        <v>13.49169806865097</v>
+        <v>15.04289308820971</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.10831220650776</v>
+        <v>22.39317603711145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.80630095010717</v>
+        <v>16.01272399511839</v>
       </c>
       <c r="C9">
-        <v>10.24177158960344</v>
+        <v>8.102598309397107</v>
       </c>
       <c r="D9">
-        <v>13.19426874921936</v>
+        <v>15.30564749849555</v>
       </c>
       <c r="E9">
-        <v>14.25969454910643</v>
+        <v>16.74342033091819</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.72786861096755</v>
+        <v>55.50196805390709</v>
       </c>
       <c r="H9">
-        <v>14.68997971531052</v>
+        <v>20.69407488458516</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.114677281311351</v>
+        <v>9.487292441668975</v>
       </c>
       <c r="K9">
-        <v>15.49541839392266</v>
+        <v>15.3760724178588</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69355453858027</v>
+        <v>22.27193926126039</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.5184858239749</v>
+        <v>16.39513357430012</v>
       </c>
       <c r="C10">
-        <v>11.23984043646981</v>
+        <v>8.364120894143227</v>
       </c>
       <c r="D10">
-        <v>14.08595960490471</v>
+        <v>15.43352069489185</v>
       </c>
       <c r="E10">
-        <v>15.21242649106458</v>
+        <v>16.87300481261131</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.40410352264134</v>
+        <v>55.90160719712778</v>
       </c>
       <c r="H10">
-        <v>15.04415023471324</v>
+        <v>20.68714380372064</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.296436140655233</v>
+        <v>9.480946244701354</v>
       </c>
       <c r="K10">
-        <v>16.99137218908099</v>
+        <v>15.63447627922256</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.41278032189019</v>
+        <v>22.19217102267281</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.26462531832799</v>
+        <v>16.57046537433436</v>
       </c>
       <c r="C11">
-        <v>11.67500862570108</v>
+        <v>8.482712914542272</v>
       </c>
       <c r="D11">
-        <v>14.48744585503666</v>
+        <v>15.4949863190103</v>
       </c>
       <c r="E11">
-        <v>15.64222898837814</v>
+        <v>16.93563289384642</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.64340803873279</v>
+        <v>56.09642905408643</v>
       </c>
       <c r="H11">
-        <v>15.21747294746244</v>
+        <v>20.68767934397323</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.382652183572134</v>
+        <v>9.479608898774154</v>
       </c>
       <c r="K11">
-        <v>17.6424979618304</v>
+        <v>15.7545467946131</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.29076138419547</v>
+        <v>22.15789828106279</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.54259678246063</v>
+        <v>16.6369920497815</v>
       </c>
       <c r="C12">
-        <v>11.83718551793205</v>
+        <v>8.527519503458459</v>
       </c>
       <c r="D12">
-        <v>14.6388538286836</v>
+        <v>15.51872194459657</v>
       </c>
       <c r="E12">
-        <v>15.80443915045076</v>
+        <v>16.95986422070974</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.11587558709026</v>
+        <v>56.17204011383385</v>
       </c>
       <c r="H12">
-        <v>15.28494822340372</v>
+        <v>20.68841269088174</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.415822031582205</v>
+        <v>9.479325046350873</v>
       </c>
       <c r="K12">
-        <v>17.88497557855654</v>
+        <v>15.80033892243987</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.24543042060698</v>
+        <v>22.14520949127733</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.48293184389654</v>
+        <v>16.62265947583001</v>
       </c>
       <c r="C13">
-        <v>11.80237228732741</v>
+        <v>8.517874857388273</v>
       </c>
       <c r="D13">
-        <v>14.60627345804814</v>
+        <v>15.51358982828012</v>
       </c>
       <c r="E13">
-        <v>15.7695287690386</v>
+        <v>16.95462287392048</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.01397913425314</v>
+        <v>56.15567486801417</v>
       </c>
       <c r="H13">
-        <v>15.27033286611568</v>
+        <v>20.68823115550937</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.408654856342674</v>
+        <v>9.479376285065898</v>
       </c>
       <c r="K13">
-        <v>17.83293326095491</v>
+        <v>15.79046297414639</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.25515336958844</v>
+        <v>22.14792937237402</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.2875850725088</v>
+        <v>16.57593627966236</v>
       </c>
       <c r="C14">
-        <v>11.68840275387161</v>
+        <v>8.486401481270541</v>
       </c>
       <c r="D14">
-        <v>14.49991490730805</v>
+        <v>15.49692992837071</v>
       </c>
       <c r="E14">
-        <v>15.65558513984175</v>
+        <v>16.93761617108576</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.68221431303427</v>
+        <v>56.10261304122538</v>
       </c>
       <c r="H14">
-        <v>15.22298675282707</v>
+        <v>20.6877290439261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.385370541564837</v>
+        <v>9.47958108715603</v>
       </c>
       <c r="K14">
-        <v>17.66252787551382</v>
+        <v>15.75830786841462</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.28701409671329</v>
+        <v>22.15684856403656</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.16733792458819</v>
+        <v>16.54733229857118</v>
       </c>
       <c r="C15">
-        <v>11.61825611795681</v>
+        <v>8.467108518720476</v>
       </c>
       <c r="D15">
-        <v>14.43468524010571</v>
+        <v>15.48678472682757</v>
       </c>
       <c r="E15">
-        <v>15.58571979359603</v>
+        <v>16.92726577825337</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.47941348996768</v>
+        <v>56.07034913360737</v>
       </c>
       <c r="H15">
-        <v>15.19422839821971</v>
+        <v>20.68749057930671</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.371176627111912</v>
+        <v>9.479735510742735</v>
       </c>
       <c r="K15">
-        <v>17.55762133981306</v>
+        <v>15.73865298632363</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.30664543743546</v>
+        <v>22.162349532632</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.46907597104548</v>
+        <v>16.38369725676143</v>
       </c>
       <c r="C16">
-        <v>11.21103001690821</v>
+        <v>8.356358946172241</v>
       </c>
       <c r="D16">
-        <v>14.05963494044829</v>
+        <v>15.42956891063136</v>
       </c>
       <c r="E16">
-        <v>15.18426232836409</v>
+        <v>16.86898481206697</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.32355275130728</v>
+        <v>55.88913415338388</v>
       </c>
       <c r="H16">
-        <v>15.03307608907405</v>
+        <v>20.68718304542482</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.290873911152177</v>
+        <v>9.481064804825667</v>
       </c>
       <c r="K16">
-        <v>16.94823958961994</v>
+        <v>15.62667683886789</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.42087380735312</v>
+        <v>22.19445135012683</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.03241805621144</v>
+        <v>16.28361726923495</v>
       </c>
       <c r="C17">
-        <v>10.95644801839305</v>
+        <v>8.288286864779957</v>
       </c>
       <c r="D17">
-        <v>13.82846203875451</v>
+        <v>15.3953032404269</v>
       </c>
       <c r="E17">
-        <v>14.93702967484208</v>
+        <v>16.83416428251633</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.62006817435431</v>
+        <v>55.78127539673948</v>
       </c>
       <c r="H17">
-        <v>14.93740084078374</v>
+        <v>20.68793928394325</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.242524475157995</v>
+        <v>9.482277010770721</v>
       </c>
       <c r="K17">
-        <v>16.56696951380788</v>
+        <v>15.55860158309732</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.49244653352217</v>
+        <v>22.2146605960498</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.77817315907784</v>
+        <v>16.22618685407977</v>
       </c>
       <c r="C18">
-        <v>10.80823761527749</v>
+        <v>8.249100939368043</v>
       </c>
       <c r="D18">
-        <v>13.69510720220955</v>
+        <v>15.37590560747123</v>
       </c>
       <c r="E18">
-        <v>14.79448914678678</v>
+        <v>16.81448363901096</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.21749582796129</v>
+        <v>55.72046617526494</v>
       </c>
       <c r="H18">
-        <v>14.88351468092384</v>
+        <v>20.68872144078069</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.215046729635711</v>
+        <v>9.483120113023984</v>
       </c>
       <c r="K18">
-        <v>16.34489775869</v>
+        <v>15.51968615235567</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.53414662286065</v>
+        <v>22.22647401259802</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.69155558357288</v>
+        <v>16.20676673197039</v>
       </c>
       <c r="C19">
-        <v>10.75774724413925</v>
+        <v>8.235829132785909</v>
       </c>
       <c r="D19">
-        <v>13.64988983330374</v>
+        <v>15.36939174131663</v>
       </c>
       <c r="E19">
-        <v>14.74617051482385</v>
+        <v>16.80788014571628</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.08154475361686</v>
+        <v>55.70008923779846</v>
       </c>
       <c r="H19">
-        <v>14.86546365495374</v>
+        <v>20.68904588708499</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.205799817358661</v>
+        <v>9.483430633268451</v>
       </c>
       <c r="K19">
-        <v>16.26922744199877</v>
+        <v>15.50655238466483</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.54835565802205</v>
+        <v>22.23050639831677</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.07922001567698</v>
+        <v>16.29425766924354</v>
       </c>
       <c r="C20">
-        <v>10.98373239940447</v>
+        <v>8.295536986235428</v>
       </c>
       <c r="D20">
-        <v>13.85311147916957</v>
+        <v>15.39891878304698</v>
       </c>
       <c r="E20">
-        <v>14.96338338072253</v>
+        <v>16.83783514923485</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.69474282802903</v>
+        <v>55.792630278058</v>
       </c>
       <c r="H20">
-        <v>14.94746665920074</v>
+        <v>20.68782284669</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.247636949627474</v>
+        <v>9.482132873635313</v>
       </c>
       <c r="K20">
-        <v>16.60784264307027</v>
+        <v>15.56582378479964</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.48477193168959</v>
+        <v>22.21248966602608</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.34508618386591</v>
+        <v>16.58965693527308</v>
       </c>
       <c r="C21">
-        <v>11.72194840767003</v>
+        <v>8.49564910147539</v>
       </c>
       <c r="D21">
-        <v>14.53117209382762</v>
+        <v>15.50181097771939</v>
       </c>
       <c r="E21">
-        <v>15.68906807610658</v>
+        <v>16.94259757657759</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.7795751154156</v>
+        <v>56.11814905810958</v>
       </c>
       <c r="H21">
-        <v>15.23684275309438</v>
+        <v>20.68786212739075</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.392195425583208</v>
+        <v>9.479514893734962</v>
       </c>
       <c r="K21">
-        <v>17.7126899070316</v>
+        <v>15.7677441171208</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.27763160070754</v>
+        <v>22.15422092343232</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14580837276046</v>
+        <v>16.78345952998421</v>
       </c>
       <c r="C22">
-        <v>12.18924509982464</v>
+        <v>8.625821040596797</v>
       </c>
       <c r="D22">
-        <v>14.97067882386853</v>
+        <v>15.57173075951832</v>
       </c>
       <c r="E22">
-        <v>16.1601648418243</v>
+        <v>17.01406326318291</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.16067249611928</v>
+        <v>56.34157828205697</v>
       </c>
       <c r="H22">
-        <v>15.43674657614517</v>
+        <v>20.69098013834259</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.48972245245762</v>
+        <v>9.47910103233626</v>
       </c>
       <c r="K22">
-        <v>18.41100681311255</v>
+        <v>15.90158135481466</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.14738594350924</v>
+        <v>22.11782664762177</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.72083281400164</v>
+        <v>16.67997666611269</v>
       </c>
       <c r="C23">
-        <v>11.94119245582981</v>
+        <v>8.556417052209778</v>
       </c>
       <c r="D23">
-        <v>14.73644241865914</v>
+        <v>15.53417341954695</v>
       </c>
       <c r="E23">
-        <v>15.90902491468726</v>
+        <v>16.97565115983131</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.42183192734035</v>
+        <v>56.2213652294357</v>
       </c>
       <c r="H23">
-        <v>15.32903762482769</v>
+        <v>20.68903306492181</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.437386004136349</v>
+        <v>9.479203335261273</v>
       </c>
       <c r="K23">
-        <v>18.04042794073555</v>
+        <v>15.82999154628515</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.21641027960772</v>
+        <v>22.13709655495867</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.05807084077126</v>
+        <v>16.28944680644726</v>
       </c>
       <c r="C24">
-        <v>10.97140289372954</v>
+        <v>8.292259359604191</v>
       </c>
       <c r="D24">
-        <v>13.84196886765638</v>
+        <v>15.39728325401721</v>
       </c>
       <c r="E24">
-        <v>14.95147012355874</v>
+        <v>16.8361744961186</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.66097659242425</v>
+        <v>55.78749299489123</v>
       </c>
       <c r="H24">
-        <v>14.94291242426603</v>
+        <v>20.68787440588416</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.245324607325227</v>
+        <v>9.482197582660275</v>
       </c>
       <c r="K24">
-        <v>16.58937286497794</v>
+        <v>15.56255793316039</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.48823990388224</v>
+        <v>22.213470536507</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.17760526069831</v>
+        <v>15.87354919105469</v>
       </c>
       <c r="C25">
-        <v>9.856887989859761</v>
+        <v>8.0062835068351</v>
       </c>
       <c r="D25">
-        <v>12.86255640405965</v>
+        <v>15.26156612842366</v>
       </c>
       <c r="E25">
-        <v>13.90599683837669</v>
+        <v>16.69904687893514</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.76189250323109</v>
+        <v>55.36656685488924</v>
       </c>
       <c r="H25">
-        <v>14.56983186547716</v>
+        <v>20.69989525433757</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.05079886332325</v>
+        <v>9.491004595837596</v>
       </c>
       <c r="K25">
-        <v>14.91761024285719</v>
+        <v>15.2834001798365</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.80170185671834</v>
+        <v>22.30310150506348</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.5742780612326</v>
+        <v>15.84193455470556</v>
       </c>
       <c r="C2">
-        <v>7.796629849130533</v>
+        <v>8.974026335802057</v>
       </c>
       <c r="D2">
-        <v>15.1723429182464</v>
+        <v>12.13114435449554</v>
       </c>
       <c r="E2">
-        <v>16.60995602762954</v>
+        <v>13.12771414658832</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>55.09818725783304</v>
+        <v>46.69674388351363</v>
       </c>
       <c r="H2">
-        <v>20.72013471696813</v>
+        <v>14.32941884120834</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.502288842922749</v>
+        <v>5.918016321897824</v>
       </c>
       <c r="K2">
-        <v>15.08719614560593</v>
+        <v>13.75114730730831</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.37534714706104</v>
+        <v>15.04838790663516</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.37699206811062</v>
+        <v>14.89373134944127</v>
       </c>
       <c r="C3">
-        <v>7.656074183994916</v>
+        <v>8.33538386911488</v>
       </c>
       <c r="D3">
-        <v>15.11874594320919</v>
+        <v>11.63096687084801</v>
       </c>
       <c r="E3">
-        <v>16.55716943134362</v>
+        <v>12.5969539722841</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>54.94265393510328</v>
+        <v>45.34261180912905</v>
       </c>
       <c r="H3">
-        <v>20.7409365053499</v>
+        <v>14.18639268534374</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.51292979004193</v>
+        <v>5.834368160391014</v>
       </c>
       <c r="K3">
-        <v>14.96069891483657</v>
+        <v>12.99042865093143</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.42821639222286</v>
+        <v>15.22489723852044</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.258983038976</v>
+        <v>14.29122996889645</v>
       </c>
       <c r="C4">
-        <v>7.570858047596745</v>
+        <v>7.922930523826653</v>
       </c>
       <c r="D4">
-        <v>15.08928247495458</v>
+        <v>11.32250600435251</v>
       </c>
       <c r="E4">
-        <v>16.5285553120065</v>
+        <v>12.27033319371332</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>54.86026843848087</v>
+        <v>44.53455448866046</v>
       </c>
       <c r="H4">
-        <v>20.75719596397233</v>
+        <v>14.1079010654335</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.520939294784489</v>
+        <v>5.786080059826921</v>
       </c>
       <c r="K4">
-        <v>14.88642758747457</v>
+        <v>12.51013475829758</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.46260862216643</v>
+        <v>15.33772401649346</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.21173836574301</v>
+        <v>14.04079441812593</v>
       </c>
       <c r="C5">
-        <v>7.536455454470543</v>
+        <v>7.749683532052759</v>
       </c>
       <c r="D5">
-        <v>15.0781500998124</v>
+        <v>11.19662077439481</v>
       </c>
       <c r="E5">
-        <v>16.51785692855492</v>
+        <v>12.13720887889189</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>54.83000811124321</v>
+        <v>44.21131088286093</v>
       </c>
       <c r="H5">
-        <v>20.76469748064765</v>
+        <v>14.07818744812409</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.524574266383265</v>
+        <v>5.767166787161875</v>
       </c>
       <c r="K5">
-        <v>14.85704604179145</v>
+        <v>12.31128786032068</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.47710947221011</v>
+        <v>15.38480127397696</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.20394614891062</v>
+        <v>13.9989198966841</v>
       </c>
       <c r="C6">
-        <v>7.530763957925006</v>
+        <v>7.720602213906799</v>
       </c>
       <c r="D6">
-        <v>15.07635458829554</v>
+        <v>11.17571135898792</v>
       </c>
       <c r="E6">
-        <v>16.51613877061864</v>
+        <v>12.11510732742649</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.82518384044074</v>
+        <v>44.15800660032996</v>
       </c>
       <c r="H6">
-        <v>20.76599595014476</v>
+        <v>14.07338860725831</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.525200255935278</v>
+        <v>5.76407217842633</v>
       </c>
       <c r="K6">
-        <v>14.85222153151754</v>
+        <v>12.27808755883737</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.47954667516238</v>
+        <v>15.39268431139247</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.25834238286041</v>
+        <v>14.28787209714539</v>
       </c>
       <c r="C7">
-        <v>7.570392704772205</v>
+        <v>7.92061505621396</v>
       </c>
       <c r="D7">
-        <v>15.08912879050627</v>
+        <v>11.32080880209746</v>
       </c>
       <c r="E7">
-        <v>16.52840712551618</v>
+        <v>12.26853770208084</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>54.85984690810692</v>
+        <v>44.53017040958404</v>
       </c>
       <c r="H7">
-        <v>20.75729358836157</v>
+        <v>14.10749123396591</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.52098681516728</v>
+        <v>5.785821904424997</v>
       </c>
       <c r="K7">
-        <v>14.88602771749339</v>
+        <v>12.50746538912724</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.4628022185504</v>
+        <v>15.33835448863196</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.50564112140222</v>
+        <v>15.51930690030032</v>
       </c>
       <c r="C8">
-        <v>7.747971348102823</v>
+        <v>8.758003974864177</v>
       </c>
       <c r="D8">
-        <v>15.1531526504807</v>
+        <v>11.95904962508957</v>
       </c>
       <c r="E8">
-        <v>16.59097183196092</v>
+        <v>12.94494967426946</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>55.04184803366145</v>
+        <v>46.22508274866237</v>
       </c>
       <c r="H8">
-        <v>20.72658276550481</v>
+        <v>14.27812402529044</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.505651472887708</v>
+        <v>5.888532140282998</v>
       </c>
       <c r="K8">
-        <v>15.04289308820971</v>
+        <v>13.49169806865097</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.39317603711145</v>
+        <v>15.10831220650781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.01272399511839</v>
+        <v>17.80630095010721</v>
       </c>
       <c r="C9">
-        <v>8.102598309397107</v>
+        <v>10.24177158960352</v>
       </c>
       <c r="D9">
-        <v>15.30564749849555</v>
+        <v>13.19426874921946</v>
       </c>
       <c r="E9">
-        <v>16.74342033091819</v>
+        <v>14.25969454910651</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>55.50196805390709</v>
+        <v>49.7278686109675</v>
       </c>
       <c r="H9">
-        <v>20.69407488458516</v>
+        <v>14.68997971531044</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.487292441668975</v>
+        <v>6.114677281311365</v>
       </c>
       <c r="K9">
-        <v>15.3760724178588</v>
+        <v>15.49541839392271</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.27193926126039</v>
+        <v>14.69355453858014</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.39513357430012</v>
+        <v>19.51848582397495</v>
       </c>
       <c r="C10">
-        <v>8.364120894143227</v>
+        <v>11.23984043646977</v>
       </c>
       <c r="D10">
-        <v>15.43352069489185</v>
+        <v>14.08595960490474</v>
       </c>
       <c r="E10">
-        <v>16.87300481261131</v>
+        <v>15.2124264910646</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.90160719712778</v>
+        <v>52.40410352264138</v>
       </c>
       <c r="H10">
-        <v>20.68714380372064</v>
+        <v>15.04415023471323</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.480946244701354</v>
+        <v>6.296436140655214</v>
       </c>
       <c r="K10">
-        <v>15.63447627922256</v>
+        <v>16.99137218908099</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.19217102267281</v>
+        <v>14.41278032189018</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.57046537433436</v>
+        <v>20.26462531832797</v>
       </c>
       <c r="C11">
-        <v>8.482712914542272</v>
+        <v>11.67500862570104</v>
       </c>
       <c r="D11">
-        <v>15.4949863190103</v>
+        <v>14.48744585503668</v>
       </c>
       <c r="E11">
-        <v>16.93563289384642</v>
+        <v>15.64222898837817</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>56.09642905408643</v>
+        <v>53.64340803873298</v>
       </c>
       <c r="H11">
-        <v>20.68767934397323</v>
+        <v>15.21747294746247</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.479608898774154</v>
+        <v>6.382652183572164</v>
       </c>
       <c r="K11">
-        <v>15.7545467946131</v>
+        <v>17.64249796183037</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.15789828106279</v>
+        <v>14.29076138419559</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.6369920497815</v>
+        <v>20.54259678246055</v>
       </c>
       <c r="C12">
-        <v>8.527519503458459</v>
+        <v>11.83718551793209</v>
       </c>
       <c r="D12">
-        <v>15.51872194459657</v>
+        <v>14.63885382868359</v>
       </c>
       <c r="E12">
-        <v>16.95986422070974</v>
+        <v>15.80443915045077</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>56.17204011383385</v>
+        <v>54.11587558709027</v>
       </c>
       <c r="H12">
-        <v>20.68841269088174</v>
+        <v>15.28494822340371</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.479325046350873</v>
+        <v>6.415822031582209</v>
       </c>
       <c r="K12">
-        <v>15.80033892243987</v>
+        <v>17.88497557855646</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.14520949127733</v>
+        <v>14.24543042060696</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.62265947583001</v>
+        <v>20.48293184389662</v>
       </c>
       <c r="C13">
-        <v>8.517874857388273</v>
+        <v>11.80237228732741</v>
       </c>
       <c r="D13">
-        <v>15.51358982828012</v>
+        <v>14.60627345804816</v>
       </c>
       <c r="E13">
-        <v>16.95462287392048</v>
+        <v>15.76952876903862</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>56.15567486801417</v>
+        <v>54.01397913425304</v>
       </c>
       <c r="H13">
-        <v>20.68823115550937</v>
+        <v>15.27033286611556</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.479376285065898</v>
+        <v>6.408654856342679</v>
       </c>
       <c r="K13">
-        <v>15.79046297414639</v>
+        <v>17.83293326095497</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.14792937237402</v>
+        <v>14.2551533695883</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.57593627966236</v>
+        <v>20.28758507250885</v>
       </c>
       <c r="C14">
-        <v>8.486401481270541</v>
+        <v>11.68840275387171</v>
       </c>
       <c r="D14">
-        <v>15.49692992837071</v>
+        <v>14.49991490730807</v>
       </c>
       <c r="E14">
-        <v>16.93761617108576</v>
+        <v>15.65558513984177</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>56.10261304122538</v>
+        <v>53.68221431303419</v>
       </c>
       <c r="H14">
-        <v>20.6877290439261</v>
+        <v>15.22298675282706</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.47958108715603</v>
+        <v>6.385370541564858</v>
       </c>
       <c r="K14">
-        <v>15.75830786841462</v>
+        <v>17.66252787551391</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.15684856403656</v>
+        <v>14.28701409671321</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.54733229857118</v>
+        <v>20.16733792458822</v>
       </c>
       <c r="C15">
-        <v>8.467108518720476</v>
+        <v>11.61825611795678</v>
       </c>
       <c r="D15">
-        <v>15.48678472682757</v>
+        <v>14.43468524010576</v>
       </c>
       <c r="E15">
-        <v>16.92726577825337</v>
+        <v>15.58571979359603</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>56.07034913360737</v>
+        <v>53.47941348996766</v>
       </c>
       <c r="H15">
-        <v>20.68749057930671</v>
+        <v>15.1942283982197</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.479735510742735</v>
+        <v>6.371176627111918</v>
       </c>
       <c r="K15">
-        <v>15.73865298632363</v>
+        <v>17.55762133981309</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.162349532632</v>
+        <v>14.3066454374354</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.38369725676143</v>
+        <v>19.46907597104555</v>
       </c>
       <c r="C16">
-        <v>8.356358946172241</v>
+        <v>11.2110300169082</v>
       </c>
       <c r="D16">
-        <v>15.42956891063136</v>
+        <v>14.05963494044834</v>
       </c>
       <c r="E16">
-        <v>16.86898481206697</v>
+        <v>15.18426232836411</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.88913415338388</v>
+        <v>52.32355275130729</v>
       </c>
       <c r="H16">
-        <v>20.68718304542482</v>
+        <v>15.03307608907399</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.481064804825667</v>
+        <v>6.290873911152155</v>
       </c>
       <c r="K16">
-        <v>15.62667683886789</v>
+        <v>16.94823958962001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.19445135012683</v>
+        <v>14.42087380735303</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.28361726923495</v>
+        <v>19.03241805621141</v>
       </c>
       <c r="C17">
-        <v>8.288286864779957</v>
+        <v>10.95644801839297</v>
       </c>
       <c r="D17">
-        <v>15.3953032404269</v>
+        <v>13.82846203875456</v>
       </c>
       <c r="E17">
-        <v>16.83416428251633</v>
+        <v>14.93702967484208</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.78127539673948</v>
+        <v>51.62006817435424</v>
       </c>
       <c r="H17">
-        <v>20.68793928394325</v>
+        <v>14.93740084078375</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.482277010770721</v>
+        <v>6.242524475158043</v>
       </c>
       <c r="K17">
-        <v>15.55860158309732</v>
+        <v>16.56696951380786</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.2146605960498</v>
+        <v>14.49244653352219</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22618685407977</v>
+        <v>18.77817315907786</v>
       </c>
       <c r="C18">
-        <v>8.249100939368043</v>
+        <v>10.80823761527738</v>
       </c>
       <c r="D18">
-        <v>15.37590560747123</v>
+        <v>13.69510720220951</v>
       </c>
       <c r="E18">
-        <v>16.81448363901096</v>
+        <v>14.79448914678673</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.72046617526494</v>
+        <v>51.21749582796144</v>
       </c>
       <c r="H18">
-        <v>20.68872144078069</v>
+        <v>14.88351468092392</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.483120113023984</v>
+        <v>6.215046729635715</v>
       </c>
       <c r="K18">
-        <v>15.51968615235567</v>
+        <v>16.34489775868998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.22647401259802</v>
+        <v>14.53414662286076</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.20676673197039</v>
+        <v>18.69155558357287</v>
       </c>
       <c r="C19">
-        <v>8.235829132785909</v>
+        <v>10.75774724413927</v>
       </c>
       <c r="D19">
-        <v>15.36939174131663</v>
+        <v>13.64988983330369</v>
       </c>
       <c r="E19">
-        <v>16.80788014571628</v>
+        <v>14.74617051482387</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.70008923779846</v>
+        <v>51.08154475361695</v>
       </c>
       <c r="H19">
-        <v>20.68904588708499</v>
+        <v>14.8654636549539</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.483430633268451</v>
+        <v>6.205799817358715</v>
       </c>
       <c r="K19">
-        <v>15.50655238466483</v>
+        <v>16.26922744199874</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.23050639831677</v>
+        <v>14.54835565802212</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29425766924354</v>
+        <v>19.079220015677</v>
       </c>
       <c r="C20">
-        <v>8.295536986235428</v>
+        <v>10.98373239940447</v>
       </c>
       <c r="D20">
-        <v>15.39891878304698</v>
+        <v>13.85311147916961</v>
       </c>
       <c r="E20">
-        <v>16.83783514923485</v>
+        <v>14.96338338072253</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.792630278058</v>
+        <v>51.69474282802901</v>
       </c>
       <c r="H20">
-        <v>20.68782284669</v>
+        <v>14.94746665920071</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.482132873635313</v>
+        <v>6.247636949627396</v>
       </c>
       <c r="K20">
-        <v>15.56582378479964</v>
+        <v>16.60784264307028</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.21248966602608</v>
+        <v>14.48477193168959</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.58965693527308</v>
+        <v>20.3450861838659</v>
       </c>
       <c r="C21">
-        <v>8.49564910147539</v>
+        <v>11.72194840767011</v>
       </c>
       <c r="D21">
-        <v>15.50181097771939</v>
+        <v>14.53117209382762</v>
       </c>
       <c r="E21">
-        <v>16.94259757657759</v>
+        <v>15.68906807610659</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.11814905810958</v>
+        <v>53.77957511541555</v>
       </c>
       <c r="H21">
-        <v>20.68786212739075</v>
+        <v>15.23684275309437</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.479514893734962</v>
+        <v>6.39219542558324</v>
       </c>
       <c r="K21">
-        <v>15.7677441171208</v>
+        <v>17.71268990703159</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.15422092343232</v>
+        <v>14.27763160070753</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.78345952998421</v>
+        <v>21.14580837276052</v>
       </c>
       <c r="C22">
-        <v>8.625821040596797</v>
+        <v>12.1892450998246</v>
       </c>
       <c r="D22">
-        <v>15.57173075951832</v>
+        <v>14.97067882386855</v>
       </c>
       <c r="E22">
-        <v>17.01406326318291</v>
+        <v>16.1601648418243</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.34157828205697</v>
+        <v>55.16067249611929</v>
       </c>
       <c r="H22">
-        <v>20.69098013834259</v>
+        <v>15.43674657614514</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.47910103233626</v>
+        <v>6.489722452457608</v>
       </c>
       <c r="K22">
-        <v>15.90158135481466</v>
+        <v>18.41100681311261</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.11782664762177</v>
+        <v>14.14738594350921</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.67997666611269</v>
+        <v>20.72083281400166</v>
       </c>
       <c r="C23">
-        <v>8.556417052209778</v>
+        <v>11.94119245582985</v>
       </c>
       <c r="D23">
-        <v>15.53417341954695</v>
+        <v>14.7364424186592</v>
       </c>
       <c r="E23">
-        <v>16.97565115983131</v>
+        <v>15.90902491468725</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>56.2213652294357</v>
+        <v>54.42183192734037</v>
       </c>
       <c r="H23">
-        <v>20.68903306492181</v>
+        <v>15.32903762482766</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.479203335261273</v>
+        <v>6.437386004136321</v>
       </c>
       <c r="K23">
-        <v>15.82999154628515</v>
+        <v>18.04042794073558</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.13709655495867</v>
+        <v>14.21641027960767</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.28944680644726</v>
+        <v>19.05807084077126</v>
       </c>
       <c r="C24">
-        <v>8.292259359604191</v>
+        <v>10.97140289372949</v>
       </c>
       <c r="D24">
-        <v>15.39728325401721</v>
+        <v>13.8419688676564</v>
       </c>
       <c r="E24">
-        <v>16.8361744961186</v>
+        <v>14.95147012355876</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.78749299489123</v>
+        <v>51.66097659242425</v>
       </c>
       <c r="H24">
-        <v>20.68787440588416</v>
+        <v>14.94291242426604</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.482197582660275</v>
+        <v>6.245324607325259</v>
       </c>
       <c r="K24">
-        <v>15.56255793316039</v>
+        <v>16.58937286497791</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.213470536507</v>
+        <v>14.48823990388224</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.87354919105469</v>
+        <v>17.17760526069829</v>
       </c>
       <c r="C25">
-        <v>8.0062835068351</v>
+        <v>9.856887989859755</v>
       </c>
       <c r="D25">
-        <v>15.26156612842366</v>
+        <v>12.86255640405967</v>
       </c>
       <c r="E25">
-        <v>16.69904687893514</v>
+        <v>13.90599683837665</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>55.36656685488924</v>
+        <v>48.76189250323124</v>
       </c>
       <c r="H25">
-        <v>20.69989525433757</v>
+        <v>14.56983186547725</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.491004595837596</v>
+        <v>6.050798863323211</v>
       </c>
       <c r="K25">
-        <v>15.2834001798365</v>
+        <v>14.91761024285712</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.30310150506348</v>
+        <v>14.80170185671841</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.84193455470556</v>
+        <v>24.04088735546665</v>
       </c>
       <c r="C2">
-        <v>8.974026335802057</v>
+        <v>13.91131430771299</v>
       </c>
       <c r="D2">
-        <v>12.13114435449554</v>
+        <v>9.07975455977496</v>
       </c>
       <c r="E2">
-        <v>13.12771414658832</v>
+        <v>8.561469117583943</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.69674388351363</v>
+        <v>24.40261469582941</v>
       </c>
       <c r="H2">
-        <v>14.32941884120834</v>
+        <v>2.458535408536662</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.089400541142624</v>
       </c>
       <c r="J2">
-        <v>5.918016321897824</v>
+        <v>9.510929867283695</v>
       </c>
       <c r="K2">
-        <v>13.75114730730831</v>
+        <v>14.67558734555567</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.351566378275264</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.04838790663516</v>
+        <v>8.739913556585382</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.71375184200511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.89373134944127</v>
+        <v>22.47425996807506</v>
       </c>
       <c r="C3">
-        <v>8.33538386911488</v>
+        <v>13.21734600740579</v>
       </c>
       <c r="D3">
-        <v>11.63096687084801</v>
+        <v>8.876104593522339</v>
       </c>
       <c r="E3">
-        <v>12.5969539722841</v>
+        <v>8.482802446863943</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.34261180912905</v>
+        <v>24.07345886112075</v>
       </c>
       <c r="H3">
-        <v>14.18639268534374</v>
+        <v>2.681195668643961</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.257484997831986</v>
       </c>
       <c r="J3">
-        <v>5.834368160391014</v>
+        <v>9.547664117718778</v>
       </c>
       <c r="K3">
-        <v>12.99042865093143</v>
+        <v>14.89051154547331</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.296128390752855</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.22489723852044</v>
+        <v>8.414687152394702</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.68964012681049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.29122996889645</v>
+        <v>21.45407362558266</v>
       </c>
       <c r="C4">
-        <v>7.922930523826653</v>
+        <v>12.77473860536725</v>
       </c>
       <c r="D4">
-        <v>11.32250600435251</v>
+        <v>8.750867929157442</v>
       </c>
       <c r="E4">
-        <v>12.27033319371332</v>
+        <v>8.433587712394578</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.53455448866046</v>
+        <v>23.88465034483051</v>
       </c>
       <c r="H4">
-        <v>14.1079010654335</v>
+        <v>2.822768388641223</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.364943173375866</v>
       </c>
       <c r="J4">
-        <v>5.786080059826921</v>
+        <v>9.573946302481504</v>
       </c>
       <c r="K4">
-        <v>12.51013475829758</v>
+        <v>15.02782173782021</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.260886806106551</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.33772401649346</v>
+        <v>8.209491914206362</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.68271698965193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.04079441812593</v>
+        <v>21.02369661135283</v>
       </c>
       <c r="C5">
-        <v>7.749683532052759</v>
+        <v>12.59998274063784</v>
       </c>
       <c r="D5">
-        <v>11.19662077439481</v>
+        <v>8.69871980971546</v>
       </c>
       <c r="E5">
-        <v>12.13720887889189</v>
+        <v>8.411978072721919</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.21131088286093</v>
+        <v>23.79658425800773</v>
       </c>
       <c r="H5">
-        <v>14.07818744812409</v>
+        <v>2.881977915456588</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.412447939681206</v>
       </c>
       <c r="J5">
-        <v>5.767166787161875</v>
+        <v>9.583173117896429</v>
       </c>
       <c r="K5">
-        <v>12.31128786032068</v>
+        <v>15.08024384468052</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.246104312730367</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.38480127397696</v>
+        <v>8.126206732660378</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.67584517669565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9989198966841</v>
+        <v>20.95138339684511</v>
       </c>
       <c r="C6">
-        <v>7.720602213906799</v>
+        <v>12.58253057643202</v>
       </c>
       <c r="D6">
-        <v>11.17571135898792</v>
+        <v>8.688690386607123</v>
       </c>
       <c r="E6">
-        <v>12.11510732742649</v>
+        <v>8.406753976835603</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.15800660032996</v>
+        <v>23.7645014907423</v>
       </c>
       <c r="H6">
-        <v>14.07338860725831</v>
+        <v>2.892223440716976</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.423787942381193</v>
       </c>
       <c r="J6">
-        <v>5.76407217842633</v>
+        <v>9.581834171555798</v>
       </c>
       <c r="K6">
-        <v>12.27808755883737</v>
+        <v>15.0831126320718</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.243493051826008</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.39268431139247</v>
+        <v>8.114293835031631</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.66752056927355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.28787209714539</v>
+        <v>21.44841337561791</v>
       </c>
       <c r="C7">
-        <v>7.92061505621396</v>
+        <v>12.80412663235226</v>
       </c>
       <c r="D7">
-        <v>11.32080880209746</v>
+        <v>8.746451651943831</v>
       </c>
       <c r="E7">
-        <v>12.26853770208084</v>
+        <v>8.428901168024264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.53017040958404</v>
+        <v>23.83545461415666</v>
       </c>
       <c r="H7">
-        <v>14.10749123396591</v>
+        <v>2.824465857506494</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.374544678010141</v>
       </c>
       <c r="J7">
-        <v>5.785821904424997</v>
+        <v>9.566089981698997</v>
       </c>
       <c r="K7">
-        <v>12.50746538912724</v>
+        <v>15.01236221912269</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.260329139687666</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.33835448863196</v>
+        <v>8.213743139849122</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.66272684762507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.51930690030032</v>
+        <v>23.51283724840428</v>
       </c>
       <c r="C8">
-        <v>8.758003974864177</v>
+        <v>13.71527500206203</v>
       </c>
       <c r="D8">
-        <v>11.95904962508957</v>
+        <v>9.004861888785364</v>
       </c>
       <c r="E8">
-        <v>12.94494967426946</v>
+        <v>8.528872431683009</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.22508274866237</v>
+        <v>24.22408166285959</v>
       </c>
       <c r="H8">
-        <v>14.27812402529044</v>
+        <v>2.535419663999352</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.157977180984877</v>
       </c>
       <c r="J8">
-        <v>5.888532140282998</v>
+        <v>9.512307283625205</v>
       </c>
       <c r="K8">
-        <v>13.49169806865097</v>
+        <v>14.72715744446372</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.332294770380464</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.10831220650781</v>
+        <v>8.635759174862438</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.67766860623268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.80630095010721</v>
+        <v>27.10026183668475</v>
       </c>
       <c r="C9">
-        <v>10.24177158960352</v>
+        <v>15.31441085898137</v>
       </c>
       <c r="D9">
-        <v>13.19426874921946</v>
+        <v>9.51396394505092</v>
       </c>
       <c r="E9">
-        <v>14.25969454910651</v>
+        <v>8.725161897663355</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.7278686109675</v>
+        <v>25.17617005547243</v>
       </c>
       <c r="H9">
-        <v>14.68997971531044</v>
+        <v>2.004845470456247</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.751843425975472</v>
       </c>
       <c r="J9">
-        <v>6.114677281311365</v>
+        <v>9.451903740012483</v>
       </c>
       <c r="K9">
-        <v>15.49541839392271</v>
+        <v>14.24087575858301</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.464630837936681</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.69355453858014</v>
+        <v>9.407176786078066</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.80757306464199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.51848582397495</v>
+        <v>29.45717622757528</v>
       </c>
       <c r="C10">
-        <v>11.23984043646977</v>
+        <v>16.4692317647474</v>
       </c>
       <c r="D10">
-        <v>14.08595960490474</v>
+        <v>9.817081882741796</v>
       </c>
       <c r="E10">
-        <v>15.2124264910646</v>
+        <v>8.793693454087615</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.40410352264138</v>
+        <v>25.70437494178615</v>
       </c>
       <c r="H10">
-        <v>15.04415023471323</v>
+        <v>1.668580047656314</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.487619072190108</v>
       </c>
       <c r="J10">
-        <v>6.296436140655214</v>
+        <v>9.387118532289945</v>
       </c>
       <c r="K10">
-        <v>16.99137218908099</v>
+        <v>13.83991088338277</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.56202836583889</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.41278032189018</v>
+        <v>9.860020260464648</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.84482786357036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.26462531832797</v>
+        <v>30.46582403776208</v>
       </c>
       <c r="C11">
-        <v>11.67500862570104</v>
+        <v>17.47901625924347</v>
       </c>
       <c r="D11">
-        <v>14.48744585503668</v>
+        <v>9.399090721540222</v>
       </c>
       <c r="E11">
-        <v>15.64222898837817</v>
+        <v>8.295404352694417</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.64340803873298</v>
+        <v>24.03793099269319</v>
       </c>
       <c r="H11">
-        <v>15.21747294746247</v>
+        <v>2.693419328302436</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.576662811610918</v>
       </c>
       <c r="J11">
-        <v>6.382652183572164</v>
+        <v>9.028773831637524</v>
       </c>
       <c r="K11">
-        <v>17.64249796183037</v>
+        <v>13.10149308134856</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.699746303866522</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.29076138419559</v>
+        <v>9.350313507713437</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.04397028222771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.54259678246055</v>
+        <v>30.83768647100347</v>
       </c>
       <c r="C12">
-        <v>11.83718551793209</v>
+        <v>18.06536764038837</v>
       </c>
       <c r="D12">
-        <v>14.63885382868359</v>
+        <v>8.9843397203727</v>
       </c>
       <c r="E12">
-        <v>15.80443915045077</v>
+        <v>7.97717943059998</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>54.11587558709027</v>
+        <v>22.56406547341908</v>
       </c>
       <c r="H12">
-        <v>15.28494822340371</v>
+        <v>4.099788703536857</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.592397360067019</v>
       </c>
       <c r="J12">
-        <v>6.415822031582209</v>
+        <v>8.751368121743216</v>
       </c>
       <c r="K12">
-        <v>17.88497557855646</v>
+        <v>12.62410491652036</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.854140533482534</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.24543042060696</v>
+        <v>8.818070457268499</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.38443137726961</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.48293184389662</v>
+        <v>30.75533635103172</v>
       </c>
       <c r="C13">
-        <v>11.80237228732741</v>
+        <v>18.41551178192246</v>
       </c>
       <c r="D13">
-        <v>14.60627345804816</v>
+        <v>8.537421923075158</v>
       </c>
       <c r="E13">
-        <v>15.76952876903862</v>
+        <v>7.783109819098269</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>54.01397913425304</v>
+        <v>21.06305268696112</v>
       </c>
       <c r="H13">
-        <v>15.27033286611556</v>
+        <v>5.539734502108437</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.558718245364421</v>
       </c>
       <c r="J13">
-        <v>6.408654856342679</v>
+        <v>8.508296282874447</v>
       </c>
       <c r="K13">
-        <v>17.83293326095497</v>
+        <v>12.30258957214264</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.024117961146382</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.2551533695883</v>
+        <v>8.234882140532921</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.76358015896859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.28758507250885</v>
+        <v>30.49111880813048</v>
       </c>
       <c r="C14">
-        <v>11.68840275387171</v>
+        <v>18.56651367917426</v>
       </c>
       <c r="D14">
-        <v>14.49991490730807</v>
+        <v>8.208979272675814</v>
       </c>
       <c r="E14">
-        <v>15.65558513984177</v>
+        <v>7.724476138716582</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.68221431303419</v>
+        <v>19.98974616359328</v>
       </c>
       <c r="H14">
-        <v>15.22298675282706</v>
+        <v>6.557308576019821</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.514387890595141</v>
       </c>
       <c r="J14">
-        <v>6.385370541564858</v>
+        <v>8.35425224706626</v>
       </c>
       <c r="K14">
-        <v>17.66252787551391</v>
+        <v>12.15695789350739</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.154522429576406</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.28701409671321</v>
+        <v>7.80324299889934</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.34665284567596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.16733792458822</v>
+        <v>30.32866766919666</v>
       </c>
       <c r="C15">
-        <v>11.61825611795678</v>
+        <v>18.56299872360409</v>
       </c>
       <c r="D15">
-        <v>14.43468524010576</v>
+        <v>8.121469193179752</v>
       </c>
       <c r="E15">
-        <v>15.58571979359603</v>
+        <v>7.720763881439861</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.47941348996766</v>
+        <v>19.71099851446322</v>
       </c>
       <c r="H15">
-        <v>15.1942283982197</v>
+        <v>6.794408667737732</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.515466621335274</v>
       </c>
       <c r="J15">
-        <v>6.371176627111918</v>
+        <v>8.322103995979772</v>
       </c>
       <c r="K15">
-        <v>17.55762133981309</v>
+        <v>12.14728802121787</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.182407465709733</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.3066454374354</v>
+        <v>7.688387626429352</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.24878863472268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.46907597104555</v>
+        <v>29.38235923458751</v>
       </c>
       <c r="C16">
-        <v>11.2110300169082</v>
+        <v>18.05818034219303</v>
       </c>
       <c r="D16">
-        <v>14.05963494044834</v>
+        <v>8.070297879541426</v>
       </c>
       <c r="E16">
-        <v>15.18426232836411</v>
+        <v>7.725495586654799</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.32355275130729</v>
+        <v>19.72472539543352</v>
       </c>
       <c r="H16">
-        <v>15.03307608907399</v>
+        <v>6.59923455106986</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.629171440568637</v>
       </c>
       <c r="J16">
-        <v>6.290873911152155</v>
+        <v>8.396405274599358</v>
       </c>
       <c r="K16">
-        <v>16.94823958962001</v>
+        <v>12.38644741197472</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.103036204739226</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.42087380735303</v>
+        <v>7.594561651869683</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.34656799327726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.03241805621141</v>
+        <v>28.78697675958029</v>
       </c>
       <c r="C17">
-        <v>10.95644801839297</v>
+        <v>17.57955645997007</v>
       </c>
       <c r="D17">
-        <v>13.82846203875456</v>
+        <v>8.207624087305605</v>
       </c>
       <c r="E17">
-        <v>14.93702967484208</v>
+        <v>7.748141584844658</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>51.62006817435424</v>
+        <v>20.31062771362186</v>
       </c>
       <c r="H17">
-        <v>14.93740084078375</v>
+        <v>5.879971408486089</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.691896302144525</v>
       </c>
       <c r="J17">
-        <v>6.242524475158043</v>
+        <v>8.533826850293307</v>
       </c>
       <c r="K17">
-        <v>16.56696951380786</v>
+        <v>12.63928582410782</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.967985563361807</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.49244653352219</v>
+        <v>7.756552777916186</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.64070551767936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.77817315907786</v>
+        <v>28.43950636773289</v>
       </c>
       <c r="C18">
-        <v>10.80823761527738</v>
+        <v>17.05381312861244</v>
       </c>
       <c r="D18">
-        <v>13.69510720220951</v>
+        <v>8.527226613599179</v>
       </c>
       <c r="E18">
-        <v>14.79448914678673</v>
+        <v>7.857615555363308</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>51.21749582796144</v>
+        <v>21.48729950491936</v>
       </c>
       <c r="H18">
-        <v>14.88351468092392</v>
+        <v>4.656109000622125</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.705068341358592</v>
       </c>
       <c r="J18">
-        <v>6.215046729635715</v>
+        <v>8.748486677923079</v>
       </c>
       <c r="K18">
-        <v>16.34489775868998</v>
+        <v>12.96643766938015</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.792444507850139</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.53414662286076</v>
+        <v>8.159894614530449</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.1539670525283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.69155558357287</v>
+        <v>28.32187962891063</v>
       </c>
       <c r="C19">
-        <v>10.75774724413927</v>
+        <v>16.59339279767495</v>
       </c>
       <c r="D19">
-        <v>13.64988983330369</v>
+        <v>8.966540487678621</v>
       </c>
       <c r="E19">
-        <v>14.74617051482387</v>
+        <v>8.120568720432034</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>51.08154475361695</v>
+        <v>22.97898664238233</v>
       </c>
       <c r="H19">
-        <v>14.8654636549539</v>
+        <v>3.221643300521393</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.695376683395749</v>
       </c>
       <c r="J19">
-        <v>6.205799817358715</v>
+        <v>9.00155291354954</v>
       </c>
       <c r="K19">
-        <v>16.26922744199874</v>
+        <v>13.34688081902851</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.63656954312636</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.54835565802212</v>
+        <v>8.739916294142136</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.78277939179819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.079220015677</v>
+        <v>28.85678476892156</v>
       </c>
       <c r="C20">
-        <v>10.98373239940447</v>
+        <v>16.25698070342214</v>
       </c>
       <c r="D20">
-        <v>13.85311147916961</v>
+        <v>9.724742493972938</v>
       </c>
       <c r="E20">
-        <v>14.96338338072253</v>
+        <v>8.760494442824749</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.69474282802901</v>
+        <v>25.41390946867496</v>
       </c>
       <c r="H20">
-        <v>14.94746665920071</v>
+        <v>1.756686134127675</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.585835811181139</v>
       </c>
       <c r="J20">
-        <v>6.247636949627396</v>
+        <v>9.376765242146959</v>
       </c>
       <c r="K20">
-        <v>16.60784264307028</v>
+        <v>13.89009217259128</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.536402005381881</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.48477193168959</v>
+        <v>9.75348704435215</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.76829802276564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.3450861838659</v>
+        <v>30.58216835982696</v>
       </c>
       <c r="C21">
-        <v>11.72194840767011</v>
+        <v>17.01066495653451</v>
       </c>
       <c r="D21">
-        <v>14.53117209382762</v>
+        <v>10.0562472596408</v>
       </c>
       <c r="E21">
-        <v>15.68906807610659</v>
+        <v>8.921560326843862</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.77957511541555</v>
+        <v>26.20526325791576</v>
       </c>
       <c r="H21">
-        <v>15.23684275309437</v>
+        <v>1.660439352954542</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.639333473986054</v>
       </c>
       <c r="J21">
-        <v>6.39219542558324</v>
+        <v>9.397102511622148</v>
       </c>
       <c r="K21">
-        <v>17.71268990703159</v>
+        <v>13.70344471075346</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.601181074934858</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.27763160070753</v>
+        <v>10.21604086839296</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.96819241952447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14580837276052</v>
+        <v>31.66800606481203</v>
       </c>
       <c r="C22">
-        <v>12.1892450998246</v>
+        <v>17.4828978611954</v>
       </c>
       <c r="D22">
-        <v>14.97067882386855</v>
+        <v>10.24241829084203</v>
       </c>
       <c r="E22">
-        <v>16.1601648418243</v>
+        <v>8.995725554264824</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>55.16067249611929</v>
+        <v>26.67857787839381</v>
       </c>
       <c r="H22">
-        <v>15.43674657614514</v>
+        <v>1.833950115856228</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.765368955184628</v>
       </c>
       <c r="J22">
-        <v>6.489722452457608</v>
+        <v>9.405835814175859</v>
       </c>
       <c r="K22">
-        <v>18.41100681311261</v>
+        <v>13.57634441575641</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.645694047400136</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.14738594350921</v>
+        <v>10.46300852761043</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.08498591883611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.72083281400166</v>
+        <v>31.09342168394048</v>
       </c>
       <c r="C23">
-        <v>11.94119245582985</v>
+        <v>17.2028548540103</v>
       </c>
       <c r="D23">
-        <v>14.7364424186592</v>
+        <v>10.1469608971217</v>
       </c>
       <c r="E23">
-        <v>15.90902491468725</v>
+        <v>8.960847339193453</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>54.42183192734037</v>
+        <v>26.47529137590761</v>
       </c>
       <c r="H23">
-        <v>15.32903762482766</v>
+        <v>1.74241322806236</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.692959130625118</v>
       </c>
       <c r="J23">
-        <v>6.437386004136321</v>
+        <v>9.409924740930521</v>
       </c>
       <c r="K23">
-        <v>18.04042794073558</v>
+        <v>13.66293017276413</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.622207178364194</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.21641027960767</v>
+        <v>10.32666752467981</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.04406502315696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.05807084077126</v>
+        <v>28.82815757853827</v>
       </c>
       <c r="C24">
-        <v>10.97140289372949</v>
+        <v>16.15392044129074</v>
       </c>
       <c r="D24">
-        <v>13.8419688676564</v>
+        <v>9.7761262753247</v>
       </c>
       <c r="E24">
-        <v>14.95147012355876</v>
+        <v>8.819965199213859</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.66097659242425</v>
+        <v>25.65182521107578</v>
       </c>
       <c r="H24">
-        <v>14.94291242426604</v>
+        <v>1.737771057866255</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.565444177841325</v>
       </c>
       <c r="J24">
-        <v>6.245324607325259</v>
+        <v>9.420098167445023</v>
       </c>
       <c r="K24">
-        <v>16.58937286497791</v>
+        <v>13.973699189951</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.531277451412849</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.48823990388224</v>
+        <v>9.804491139128139</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.87305353317664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.17760526069829</v>
+        <v>26.17882894022126</v>
       </c>
       <c r="C25">
-        <v>9.856887989859755</v>
+        <v>14.94721508628032</v>
       </c>
       <c r="D25">
-        <v>12.86255640405967</v>
+        <v>9.370813218541379</v>
       </c>
       <c r="E25">
-        <v>13.90599683837665</v>
+        <v>8.665389586586896</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.76189250323124</v>
+        <v>24.82485435993016</v>
       </c>
       <c r="H25">
-        <v>14.56983186547725</v>
+        <v>2.145837217003702</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.87515281327246</v>
       </c>
       <c r="J25">
-        <v>6.050798863323211</v>
+        <v>9.450517394425489</v>
       </c>
       <c r="K25">
-        <v>14.91761024285712</v>
+        <v>14.33815446558505</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.429356110971732</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.80170185671841</v>
+        <v>9.212689160093571</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.72989510808775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04088735546665</v>
+        <v>24.03921137890853</v>
       </c>
       <c r="C2">
-        <v>13.91131430771299</v>
+        <v>14.06960663874571</v>
       </c>
       <c r="D2">
-        <v>9.07975455977496</v>
+        <v>9.020476166861773</v>
       </c>
       <c r="E2">
-        <v>8.561469117583943</v>
+        <v>8.470533977860448</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.40261469582941</v>
+        <v>23.0373752026834</v>
       </c>
       <c r="H2">
-        <v>2.458535408536662</v>
+        <v>2.365934188402901</v>
       </c>
       <c r="I2">
-        <v>3.089400541142624</v>
+        <v>2.968535295209008</v>
       </c>
       <c r="J2">
-        <v>9.510929867283695</v>
+        <v>9.698254539429534</v>
       </c>
       <c r="K2">
-        <v>14.67558734555567</v>
+        <v>14.1826568114317</v>
       </c>
       <c r="L2">
-        <v>5.351566378275264</v>
+        <v>11.76690677772028</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.173776981976282</v>
       </c>
       <c r="N2">
-        <v>8.739913556585382</v>
+        <v>5.325779652639227</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.88274373506605</v>
       </c>
       <c r="Q2">
-        <v>15.71375184200511</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.31512529144687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47425996807506</v>
+        <v>22.46802286016202</v>
       </c>
       <c r="C3">
-        <v>13.21734600740579</v>
+        <v>13.27509989363847</v>
       </c>
       <c r="D3">
-        <v>8.876104593522339</v>
+        <v>8.826295736083878</v>
       </c>
       <c r="E3">
-        <v>8.482802446863943</v>
+        <v>8.405148315565736</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.07345886112075</v>
+        <v>22.81655519721816</v>
       </c>
       <c r="H3">
-        <v>2.681195668643961</v>
+        <v>2.573769689108691</v>
       </c>
       <c r="I3">
-        <v>3.257484997831986</v>
+        <v>3.118743715770802</v>
       </c>
       <c r="J3">
-        <v>9.547664117718778</v>
+        <v>9.707245365207404</v>
       </c>
       <c r="K3">
-        <v>14.89051154547331</v>
+        <v>14.40947135241863</v>
       </c>
       <c r="L3">
-        <v>5.296128390752855</v>
+        <v>11.96564638506506</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.351840578132897</v>
       </c>
       <c r="N3">
-        <v>8.414687152394702</v>
+        <v>5.271670687931953</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.553511902649246</v>
       </c>
       <c r="Q3">
-        <v>15.68964012681049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.31831374738115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45407362558266</v>
+        <v>21.44410823875013</v>
       </c>
       <c r="C4">
-        <v>12.77473860536725</v>
+        <v>12.76704611307964</v>
       </c>
       <c r="D4">
-        <v>8.750867929157442</v>
+        <v>8.706937119689206</v>
       </c>
       <c r="E4">
-        <v>8.433587712394578</v>
+        <v>8.364167912642797</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.88465034483051</v>
+        <v>22.69603475734528</v>
       </c>
       <c r="H4">
-        <v>2.822768388641223</v>
+        <v>2.705969500686617</v>
       </c>
       <c r="I4">
-        <v>3.364943173375866</v>
+        <v>3.215081833943678</v>
       </c>
       <c r="J4">
-        <v>9.573946302481504</v>
+        <v>9.714283712976449</v>
       </c>
       <c r="K4">
-        <v>15.02782173782021</v>
+        <v>14.55277263862961</v>
       </c>
       <c r="L4">
-        <v>5.260886806106551</v>
+        <v>12.09149754703024</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.478988148248268</v>
       </c>
       <c r="N4">
-        <v>8.209491914206362</v>
+        <v>5.237338216319968</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>8.34612357813023</v>
       </c>
       <c r="Q4">
-        <v>15.68271698965193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.3266471326852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02369661135283</v>
+        <v>21.0119566465349</v>
       </c>
       <c r="C5">
-        <v>12.59998274063784</v>
+        <v>12.56483978441613</v>
       </c>
       <c r="D5">
-        <v>8.69871980971546</v>
+        <v>8.657231713776323</v>
       </c>
       <c r="E5">
-        <v>8.411978072721919</v>
+        <v>8.345990171125361</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.79658425800773</v>
+        <v>22.63643993842352</v>
       </c>
       <c r="H5">
-        <v>2.881977915456588</v>
+        <v>2.761281695397085</v>
       </c>
       <c r="I5">
-        <v>3.412447939681206</v>
+        <v>3.258483235108613</v>
       </c>
       <c r="J5">
-        <v>9.583173117896429</v>
+        <v>9.715188443344609</v>
       </c>
       <c r="K5">
-        <v>15.08024384468052</v>
+        <v>14.60760614237185</v>
       </c>
       <c r="L5">
-        <v>5.246104312730367</v>
+        <v>12.13910643622551</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.532964645053816</v>
       </c>
       <c r="N5">
-        <v>8.126206732660378</v>
+        <v>5.222968226243277</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>8.261959175493985</v>
       </c>
       <c r="Q5">
-        <v>15.67584517669565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.32581014597825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95138339684511</v>
+        <v>20.93932250527477</v>
       </c>
       <c r="C6">
-        <v>12.58253057643202</v>
+        <v>12.54293085113967</v>
       </c>
       <c r="D6">
-        <v>8.688690386607123</v>
+        <v>8.647652145928966</v>
       </c>
       <c r="E6">
-        <v>8.406753976835603</v>
+        <v>8.341408196503741</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.7645014907423</v>
+        <v>22.60945984856189</v>
       </c>
       <c r="H6">
-        <v>2.892223440716976</v>
+        <v>2.770866415441934</v>
       </c>
       <c r="I6">
-        <v>3.423787942381193</v>
+        <v>3.269754489022893</v>
       </c>
       <c r="J6">
-        <v>9.581834171555798</v>
+        <v>9.712505965097721</v>
       </c>
       <c r="K6">
-        <v>15.0831126320718</v>
+        <v>14.61120334525324</v>
       </c>
       <c r="L6">
-        <v>5.243493051826008</v>
+        <v>12.14141166966634</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.539535120159234</v>
       </c>
       <c r="N6">
-        <v>8.114293835031631</v>
+        <v>5.220448849418414</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>8.249829394386269</v>
       </c>
       <c r="Q6">
-        <v>15.66752056927355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.31870356856368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44841337561791</v>
+        <v>21.43842535973097</v>
       </c>
       <c r="C7">
-        <v>12.80412663235226</v>
+        <v>12.79092423370677</v>
       </c>
       <c r="D7">
-        <v>8.746451651943831</v>
+        <v>8.702922197167336</v>
       </c>
       <c r="E7">
-        <v>8.428901168024264</v>
+        <v>8.359674746450093</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.83545461415666</v>
+        <v>22.72080216330609</v>
       </c>
       <c r="H7">
-        <v>2.824465857506494</v>
+        <v>2.70818542143373</v>
       </c>
       <c r="I7">
-        <v>3.374544678010141</v>
+        <v>3.226756008884095</v>
       </c>
       <c r="J7">
-        <v>9.566089981698997</v>
+        <v>9.670770336471703</v>
       </c>
       <c r="K7">
-        <v>15.01236221912269</v>
+        <v>14.53271454788928</v>
       </c>
       <c r="L7">
-        <v>5.260329139687666</v>
+        <v>12.07145956213522</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.46922011428534</v>
       </c>
       <c r="N7">
-        <v>8.213743139849122</v>
+        <v>5.236524291269726</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.34932964721232</v>
       </c>
       <c r="Q7">
-        <v>15.66272684762507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.29635462960342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51283724840428</v>
+        <v>23.50977190559595</v>
       </c>
       <c r="C8">
-        <v>13.71527500206203</v>
+        <v>13.82287660782228</v>
       </c>
       <c r="D8">
-        <v>9.004861888785364</v>
+        <v>8.949860017102933</v>
       </c>
       <c r="E8">
-        <v>8.528872431683009</v>
+        <v>8.442739693030877</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.22408166285959</v>
+        <v>23.13663896709984</v>
       </c>
       <c r="H8">
-        <v>2.535419663999352</v>
+        <v>2.43956140209971</v>
       </c>
       <c r="I8">
-        <v>3.157977180984877</v>
+        <v>3.034630149150171</v>
       </c>
       <c r="J8">
-        <v>9.512307283625205</v>
+        <v>9.574088098239075</v>
       </c>
       <c r="K8">
-        <v>14.72715744446372</v>
+        <v>14.2217726595</v>
       </c>
       <c r="L8">
-        <v>5.332294770380464</v>
+        <v>11.80003564513029</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.207934821741585</v>
       </c>
       <c r="N8">
-        <v>8.635759174862438</v>
+        <v>5.306029285330908</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.77426638186072</v>
       </c>
       <c r="Q8">
-        <v>15.67766860623268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.25335038493219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10026183668475</v>
+        <v>27.10375828318272</v>
       </c>
       <c r="C9">
-        <v>15.31441085898137</v>
+        <v>15.64862666002917</v>
       </c>
       <c r="D9">
-        <v>9.51396394505092</v>
+        <v>9.43599560646715</v>
       </c>
       <c r="E9">
-        <v>8.725161897663355</v>
+        <v>8.606373944185396</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.17617005547243</v>
+        <v>23.88865553661647</v>
       </c>
       <c r="H9">
-        <v>2.004845470456247</v>
+        <v>1.944882902607789</v>
       </c>
       <c r="I9">
-        <v>2.751843425975472</v>
+        <v>2.670911677403712</v>
       </c>
       <c r="J9">
-        <v>9.451903740012483</v>
+        <v>9.537794121247904</v>
       </c>
       <c r="K9">
-        <v>14.24087575858301</v>
+        <v>13.69165639341201</v>
       </c>
       <c r="L9">
-        <v>5.464630837936681</v>
+        <v>11.34175880145343</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.870917275811406</v>
       </c>
       <c r="N9">
-        <v>9.407176786078066</v>
+        <v>5.435288721439923</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.5565177637829</v>
       </c>
       <c r="Q9">
-        <v>15.80757306464199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.2965859487586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45717622757528</v>
+        <v>29.46829053436328</v>
       </c>
       <c r="C10">
-        <v>16.4692317647474</v>
+        <v>16.91436407962483</v>
       </c>
       <c r="D10">
-        <v>9.817081882741796</v>
+        <v>9.72625509328841</v>
       </c>
       <c r="E10">
-        <v>8.793693454087615</v>
+        <v>8.655715312564965</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.70437494178615</v>
+        <v>24.70669658404559</v>
       </c>
       <c r="H10">
-        <v>1.668580047656314</v>
+        <v>1.63632188357053</v>
       </c>
       <c r="I10">
-        <v>2.487619072190108</v>
+        <v>2.544289301542363</v>
       </c>
       <c r="J10">
-        <v>9.387118532289945</v>
+        <v>9.289178676123475</v>
       </c>
       <c r="K10">
-        <v>13.83991088338277</v>
+        <v>13.23258664686258</v>
       </c>
       <c r="L10">
-        <v>5.56202836583889</v>
+        <v>10.96127692720997</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.64405125552946</v>
       </c>
       <c r="N10">
-        <v>9.860020260464648</v>
+        <v>5.530719991224702</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10.01145792860927</v>
       </c>
       <c r="Q10">
-        <v>15.84482786357036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.21239317714219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46582403776208</v>
+        <v>30.47082202380107</v>
       </c>
       <c r="C11">
-        <v>17.47901625924347</v>
+        <v>17.82746948739892</v>
       </c>
       <c r="D11">
-        <v>9.399090721540222</v>
+        <v>9.320264923697795</v>
       </c>
       <c r="E11">
-        <v>8.295404352694417</v>
+        <v>8.18012367125753</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.03793099269319</v>
+        <v>24.03018742104053</v>
       </c>
       <c r="H11">
-        <v>2.693419328302436</v>
+        <v>2.681297728890447</v>
       </c>
       <c r="I11">
-        <v>2.576662811610918</v>
+        <v>2.623232267420363</v>
       </c>
       <c r="J11">
-        <v>9.028773831637524</v>
+        <v>8.632082387645124</v>
       </c>
       <c r="K11">
-        <v>13.10149308134856</v>
+        <v>12.54172154782453</v>
       </c>
       <c r="L11">
-        <v>5.699746303866522</v>
+        <v>10.48761353954805</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.109501929937393</v>
       </c>
       <c r="N11">
-        <v>9.350313507713437</v>
+        <v>5.674902498449896</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.476479182881373</v>
       </c>
       <c r="Q11">
-        <v>15.04397028222771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.35237233731818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.83768647100347</v>
+        <v>30.84119261253896</v>
       </c>
       <c r="C12">
-        <v>18.06536764038837</v>
+        <v>18.32091591911671</v>
       </c>
       <c r="D12">
-        <v>8.9843397203727</v>
+        <v>8.916914634913589</v>
       </c>
       <c r="E12">
-        <v>7.97717943059998</v>
+        <v>7.881237257816391</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.56406547341908</v>
+        <v>23.07186002811827</v>
       </c>
       <c r="H12">
-        <v>4.099788703536857</v>
+        <v>4.093171017352767</v>
       </c>
       <c r="I12">
-        <v>2.592397360067019</v>
+        <v>2.635494778632808</v>
       </c>
       <c r="J12">
-        <v>8.751368121743216</v>
+        <v>8.295199297044029</v>
       </c>
       <c r="K12">
-        <v>12.62410491652036</v>
+        <v>12.13909411775615</v>
       </c>
       <c r="L12">
-        <v>5.854140533482534</v>
+        <v>10.24031668950455</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.754432308436354</v>
       </c>
       <c r="N12">
-        <v>8.818070457268499</v>
+        <v>5.832901915367043</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.925346911618565</v>
       </c>
       <c r="Q12">
-        <v>14.38443137726961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.71077039259262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.75533635103172</v>
+        <v>30.7590613610149</v>
       </c>
       <c r="C13">
-        <v>18.41551178192246</v>
+        <v>18.5855617263048</v>
       </c>
       <c r="D13">
-        <v>8.537421923075158</v>
+        <v>8.481110191100479</v>
       </c>
       <c r="E13">
-        <v>7.783109819098269</v>
+        <v>7.70536964453391</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.06305268696112</v>
+        <v>21.57356011334283</v>
       </c>
       <c r="H13">
-        <v>5.539734502108437</v>
+        <v>5.533501695342187</v>
       </c>
       <c r="I13">
-        <v>2.558718245364421</v>
+        <v>2.605643927009912</v>
       </c>
       <c r="J13">
-        <v>8.508296282874447</v>
+        <v>8.181069189326708</v>
       </c>
       <c r="K13">
-        <v>12.30258957214264</v>
+        <v>11.91564041225774</v>
       </c>
       <c r="L13">
-        <v>6.024117961146382</v>
+        <v>10.11420393666302</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.520952359242459</v>
       </c>
       <c r="N13">
-        <v>8.234882140532921</v>
+        <v>6.005813339587861</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.328355407832833</v>
       </c>
       <c r="Q13">
-        <v>13.76358015896859</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.19111169602932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.49111880813048</v>
+        <v>30.49512902810685</v>
       </c>
       <c r="C14">
-        <v>18.56651367917426</v>
+        <v>18.67859272317463</v>
       </c>
       <c r="D14">
-        <v>8.208979272675814</v>
+        <v>8.160397326472632</v>
       </c>
       <c r="E14">
-        <v>7.724476138716582</v>
+        <v>7.658542276187162</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>19.98974616359328</v>
+        <v>20.28132355030882</v>
       </c>
       <c r="H14">
-        <v>6.557308576019821</v>
+        <v>6.550293931690145</v>
       </c>
       <c r="I14">
-        <v>2.514387890595141</v>
+        <v>2.567592389055533</v>
       </c>
       <c r="J14">
-        <v>8.35425224706626</v>
+        <v>8.180308988397497</v>
       </c>
       <c r="K14">
-        <v>12.15695789350739</v>
+        <v>11.8388225698265</v>
       </c>
       <c r="L14">
-        <v>6.154522429576406</v>
+        <v>10.07171181900389</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.421002594422791</v>
       </c>
       <c r="N14">
-        <v>7.80324299889934</v>
+        <v>6.137877094812535</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.889309919500624</v>
       </c>
       <c r="Q14">
-        <v>13.34665284567596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.87722217301233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.32866766919666</v>
+        <v>30.33279473908586</v>
       </c>
       <c r="C15">
-        <v>18.56299872360409</v>
+        <v>18.66194346849395</v>
       </c>
       <c r="D15">
-        <v>8.121469193179752</v>
+        <v>8.074870712564874</v>
       </c>
       <c r="E15">
-        <v>7.720763881439861</v>
+        <v>7.658124786591067</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>19.71099851446322</v>
+        <v>19.85875642485271</v>
       </c>
       <c r="H15">
-        <v>6.794408667737732</v>
+        <v>6.786747188612989</v>
       </c>
       <c r="I15">
-        <v>2.515466621335274</v>
+        <v>2.551484613235653</v>
       </c>
       <c r="J15">
-        <v>8.322103995979772</v>
+        <v>8.212634947788176</v>
       </c>
       <c r="K15">
-        <v>12.14728802121787</v>
+        <v>11.84708582905767</v>
       </c>
       <c r="L15">
-        <v>6.182407465709733</v>
+        <v>10.0750781857743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.418775064357252</v>
       </c>
       <c r="N15">
-        <v>7.688387626429352</v>
+        <v>6.166423089109248</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.773522996078854</v>
       </c>
       <c r="Q15">
-        <v>13.24878863472268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.81802466589682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38235923458751</v>
+        <v>29.38675738982057</v>
       </c>
       <c r="C16">
-        <v>18.05818034219303</v>
+        <v>18.16540610616887</v>
       </c>
       <c r="D16">
-        <v>8.070297879541426</v>
+        <v>8.024834885566206</v>
       </c>
       <c r="E16">
-        <v>7.725495586654799</v>
+        <v>7.668920121113021</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>19.72472539543352</v>
+        <v>19.14720122981181</v>
       </c>
       <c r="H16">
-        <v>6.59923455106986</v>
+        <v>6.586438893698935</v>
       </c>
       <c r="I16">
-        <v>2.629171440568637</v>
+        <v>2.574047030884943</v>
       </c>
       <c r="J16">
-        <v>8.396405274599358</v>
+        <v>8.531414961132512</v>
       </c>
       <c r="K16">
-        <v>12.38644741197472</v>
+        <v>12.10118967363033</v>
       </c>
       <c r="L16">
-        <v>6.103036204739226</v>
+        <v>10.21035373132142</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.624403103462389</v>
       </c>
       <c r="N16">
-        <v>7.594561651869683</v>
+        <v>6.090358382252792</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.687369470433913</v>
       </c>
       <c r="Q16">
-        <v>13.34656799327726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.02695165872382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78697675958029</v>
+        <v>28.7912730699932</v>
       </c>
       <c r="C17">
-        <v>17.57955645997007</v>
+        <v>17.71807906941284</v>
       </c>
       <c r="D17">
-        <v>8.207624087305605</v>
+        <v>8.159279032383573</v>
       </c>
       <c r="E17">
-        <v>7.748141584844658</v>
+        <v>7.689445378773859</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.31062771362186</v>
+        <v>19.39541778730766</v>
       </c>
       <c r="H17">
-        <v>5.879971408486089</v>
+        <v>5.862426784701128</v>
       </c>
       <c r="I17">
-        <v>2.691896302144525</v>
+        <v>2.628753679093512</v>
       </c>
       <c r="J17">
-        <v>8.533826850293307</v>
+        <v>8.764771677361534</v>
       </c>
       <c r="K17">
-        <v>12.63928582410782</v>
+        <v>12.33604674508805</v>
       </c>
       <c r="L17">
-        <v>5.967985563361807</v>
+        <v>10.35125737847796</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.82081237136346</v>
       </c>
       <c r="N17">
-        <v>7.756552777916186</v>
+        <v>5.956407744948011</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.858229285182966</v>
       </c>
       <c r="Q17">
-        <v>13.64070551767936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.34196336726304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43950636773289</v>
+        <v>28.44371262561546</v>
       </c>
       <c r="C18">
-        <v>17.05381312861244</v>
+        <v>17.25583185304787</v>
       </c>
       <c r="D18">
-        <v>8.527226613599179</v>
+        <v>8.471242954802747</v>
       </c>
       <c r="E18">
-        <v>7.857615555363308</v>
+        <v>7.787658843204303</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21.48729950491936</v>
+        <v>20.35876775564057</v>
       </c>
       <c r="H18">
-        <v>4.656109000622125</v>
+        <v>4.632489011318074</v>
       </c>
       <c r="I18">
-        <v>2.705068341358592</v>
+        <v>2.637134755604972</v>
       </c>
       <c r="J18">
-        <v>8.748486677923079</v>
+        <v>9.000240144152631</v>
       </c>
       <c r="K18">
-        <v>12.96643766938015</v>
+        <v>12.61682916785927</v>
       </c>
       <c r="L18">
-        <v>5.792444507850139</v>
+        <v>10.54031680782679</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.053606301276552</v>
       </c>
       <c r="N18">
-        <v>8.159894614530449</v>
+        <v>5.779818260477003</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>8.274216449670686</v>
       </c>
       <c r="Q18">
-        <v>14.1539670525283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.82246216529968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32187962891063</v>
+        <v>28.32611604925387</v>
       </c>
       <c r="C19">
-        <v>16.59339279767495</v>
+        <v>16.88097786939836</v>
       </c>
       <c r="D19">
-        <v>8.966540487678621</v>
+        <v>8.899327664977031</v>
       </c>
       <c r="E19">
-        <v>8.120568720432034</v>
+        <v>8.030337998217361</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.97898664238233</v>
+        <v>21.68660198388789</v>
       </c>
       <c r="H19">
-        <v>3.221643300521393</v>
+        <v>3.188970476658668</v>
       </c>
       <c r="I19">
-        <v>2.695376683395749</v>
+        <v>2.629705119005524</v>
       </c>
       <c r="J19">
-        <v>9.00155291354954</v>
+        <v>9.232343781598164</v>
       </c>
       <c r="K19">
-        <v>13.34688081902851</v>
+        <v>12.92794015311573</v>
       </c>
       <c r="L19">
-        <v>5.63656954312636</v>
+        <v>10.76230570007762</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.310296154471258</v>
       </c>
       <c r="N19">
-        <v>8.739916294142136</v>
+        <v>5.619709289042861</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.869687636300535</v>
       </c>
       <c r="Q19">
-        <v>14.78277939179819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.38551656118011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85678476892156</v>
+        <v>28.86459908855282</v>
       </c>
       <c r="C20">
-        <v>16.25698070342214</v>
+        <v>16.68938187201798</v>
       </c>
       <c r="D20">
-        <v>9.724742493972938</v>
+        <v>9.636665621509081</v>
       </c>
       <c r="E20">
-        <v>8.760494442824749</v>
+        <v>8.628111813658547</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.41390946867496</v>
+        <v>24.09408817175232</v>
       </c>
       <c r="H20">
-        <v>1.756686134127675</v>
+        <v>1.715457855181574</v>
       </c>
       <c r="I20">
-        <v>2.585835811181139</v>
+        <v>2.534320871953963</v>
       </c>
       <c r="J20">
-        <v>9.376765242146959</v>
+        <v>9.450701210464436</v>
       </c>
       <c r="K20">
-        <v>13.89009217259128</v>
+        <v>13.32420032912343</v>
       </c>
       <c r="L20">
-        <v>5.536402005381881</v>
+        <v>11.0396372390472</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.674516148668296</v>
       </c>
       <c r="N20">
-        <v>9.75348704435215</v>
+        <v>5.506832702608889</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.906343400564193</v>
       </c>
       <c r="Q20">
-        <v>15.76829802276564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.21004805007537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.58216835982696</v>
+        <v>30.59407154214534</v>
       </c>
       <c r="C21">
-        <v>17.01066495653451</v>
+        <v>17.45998092096797</v>
       </c>
       <c r="D21">
-        <v>10.0562472596408</v>
+        <v>9.961344668621257</v>
       </c>
       <c r="E21">
-        <v>8.921560326843862</v>
+        <v>8.770950680237396</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.20526325791576</v>
+        <v>26.39738396040777</v>
       </c>
       <c r="H21">
-        <v>1.660439352954542</v>
+        <v>1.672024296351591</v>
       </c>
       <c r="I21">
-        <v>2.639333473986054</v>
+        <v>2.678700362974233</v>
       </c>
       <c r="J21">
-        <v>9.397102511622148</v>
+        <v>8.73076637147922</v>
       </c>
       <c r="K21">
-        <v>13.70344471075346</v>
+        <v>12.96573122235949</v>
       </c>
       <c r="L21">
-        <v>5.601181074934858</v>
+        <v>10.75429997314391</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.513157111482798</v>
       </c>
       <c r="N21">
-        <v>10.21604086839296</v>
+        <v>5.563460703878693</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.36090859487681</v>
       </c>
       <c r="Q21">
-        <v>15.96819241952447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.09393975596765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66800606481203</v>
+        <v>31.67300447424676</v>
       </c>
       <c r="C22">
-        <v>17.4828978611954</v>
+        <v>17.93172968252149</v>
       </c>
       <c r="D22">
-        <v>10.24241829084203</v>
+        <v>10.14472046402848</v>
       </c>
       <c r="E22">
-        <v>8.995725554264824</v>
+        <v>8.836247448823208</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.67857787839381</v>
+        <v>27.97690900667071</v>
       </c>
       <c r="H22">
-        <v>1.833950115856228</v>
+        <v>1.82729575201147</v>
       </c>
       <c r="I22">
-        <v>2.765368955184628</v>
+        <v>2.78437805133863</v>
       </c>
       <c r="J22">
-        <v>9.405835814175859</v>
+        <v>8.277789702379566</v>
       </c>
       <c r="K22">
-        <v>13.57634441575641</v>
+        <v>12.71794595911932</v>
       </c>
       <c r="L22">
-        <v>5.645694047400136</v>
+        <v>10.56542283009265</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.406941961490515</v>
       </c>
       <c r="N22">
-        <v>10.46300852761043</v>
+        <v>5.603462176741603</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.60096108260333</v>
       </c>
       <c r="Q22">
-        <v>16.08498591883611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.98970744539485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.09342168394048</v>
+        <v>31.10241458783873</v>
       </c>
       <c r="C23">
-        <v>17.2028548540103</v>
+        <v>17.66298755442775</v>
       </c>
       <c r="D23">
-        <v>10.1469608971217</v>
+        <v>10.04976681601094</v>
       </c>
       <c r="E23">
-        <v>8.960847339193453</v>
+        <v>8.805323364517047</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.47529137590761</v>
+        <v>26.99627814075922</v>
       </c>
       <c r="H23">
-        <v>1.74241322806236</v>
+        <v>1.746369103197405</v>
       </c>
       <c r="I23">
-        <v>2.692959130625118</v>
+        <v>2.722119287231967</v>
       </c>
       <c r="J23">
-        <v>9.409924740930521</v>
+        <v>8.588990858220543</v>
       </c>
       <c r="K23">
-        <v>13.66293017276413</v>
+        <v>12.8807187857999</v>
       </c>
       <c r="L23">
-        <v>5.622207178364194</v>
+        <v>10.68423546855163</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.491158233653399</v>
       </c>
       <c r="N23">
-        <v>10.32666752467981</v>
+        <v>5.582820545292848</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.47030162078451</v>
       </c>
       <c r="Q23">
-        <v>16.04406502315696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.09405873047235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82815757853827</v>
+        <v>28.8372062561479</v>
       </c>
       <c r="C24">
-        <v>16.15392044129074</v>
+        <v>16.59425462898388</v>
       </c>
       <c r="D24">
-        <v>9.7761262753247</v>
+        <v>9.686641313217672</v>
       </c>
       <c r="E24">
-        <v>8.819965199213859</v>
+        <v>8.684536974691106</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.65182521107578</v>
+        <v>24.30294906925489</v>
       </c>
       <c r="H24">
-        <v>1.737771057866255</v>
+        <v>1.696387559295198</v>
       </c>
       <c r="I24">
-        <v>2.565444177841325</v>
+        <v>2.510149438705526</v>
       </c>
       <c r="J24">
-        <v>9.420098167445023</v>
+        <v>9.494602672577724</v>
       </c>
       <c r="K24">
-        <v>13.973699189951</v>
+        <v>13.39602277936282</v>
       </c>
       <c r="L24">
-        <v>5.531277451412849</v>
+        <v>11.0907112642424</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.73333357421156</v>
       </c>
       <c r="N24">
-        <v>9.804491139128139</v>
+        <v>5.500551380661258</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.959398586754773</v>
       </c>
       <c r="Q24">
-        <v>15.87305353317664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.30742361705355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17882894022126</v>
+        <v>26.18124607632207</v>
       </c>
       <c r="C25">
-        <v>14.94721508628032</v>
+        <v>15.23043914702372</v>
       </c>
       <c r="D25">
-        <v>9.370813218541379</v>
+        <v>9.298785228679732</v>
       </c>
       <c r="E25">
-        <v>8.665389586586896</v>
+        <v>8.555699606654276</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.82485435993016</v>
+        <v>23.49003395481393</v>
       </c>
       <c r="H25">
-        <v>2.145837217003702</v>
+        <v>2.07559217216476</v>
       </c>
       <c r="I25">
-        <v>2.87515281327246</v>
+        <v>2.785375089589806</v>
       </c>
       <c r="J25">
-        <v>9.450517394425489</v>
+        <v>9.582513383032374</v>
       </c>
       <c r="K25">
-        <v>14.33815446558505</v>
+        <v>13.8128752105987</v>
       </c>
       <c r="L25">
-        <v>5.429356110971732</v>
+        <v>11.44810801571247</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.931128006556403</v>
       </c>
       <c r="N25">
-        <v>9.212689160093571</v>
+        <v>5.40131703326817</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9.359749377401425</v>
       </c>
       <c r="Q25">
-        <v>15.72989510808775</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.26071113931554</v>
       </c>
     </row>
   </sheetData>
